--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/Code_testing_grad/DVSW/assign4/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84CFD75-0EAF-C04D-9540-283D8DB441DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FD7FD-03A0-2749-9B1E-9FE4135C1F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44080" yWindow="-5680" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
   <si>
     <t>title</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=1579408407249363150</t>
+  </si>
+  <si>
+    <t>Journal of Comparative Neurology</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,6 +1735,9 @@
       </c>
       <c r="I13" t="s">
         <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>254</v>
       </c>
       <c r="K13" t="s">
         <v>125</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FD7FD-03A0-2749-9B1E-9FE4135C1F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6742B94F-CB43-0742-B02D-E3FC302A38B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44080" yWindow="-5680" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="47300" yWindow="-3340" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="282">
   <si>
     <t>title</t>
   </si>
@@ -545,9 +545,6 @@
     <t>Neural Networks as Model Selection with Incremental MDL Normalization</t>
   </si>
   <si>
-    <t>Nnmodelijcai</t>
-  </si>
-  <si>
     <t>IJCAI 2019 Workshop on Human Brain and Artificial Intelligence (HBAI)</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>https://github.com/doerlbh/DREAM_PDBiomarker</t>
   </si>
   <si>
-    <t>Pdbiomarkerrsg</t>
-  </si>
-  <si>
     <t>RSG_PDBiomarker_poster.pdf</t>
   </si>
   <si>
@@ -798,6 +792,93 @@
   </si>
   <si>
     <t>Journal of Comparative Neurology</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>areas</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>SP-ML-HCI</t>
+  </si>
+  <si>
+    <t>kriegeskorte</t>
+  </si>
+  <si>
+    <t>ML-GT</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>ML-IT-CV</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>NS-CV</t>
+  </si>
+  <si>
+    <t>ML-TM-NS</t>
+  </si>
+  <si>
+    <t>CV-HCI</t>
+  </si>
+  <si>
+    <t>self-kriegeskorte-rabadan</t>
+  </si>
+  <si>
+    <t>ML-GT-SB</t>
+  </si>
+  <si>
+    <t>olavarria</t>
+  </si>
+  <si>
+    <t>NS-ML</t>
+  </si>
+  <si>
+    <t>self-rabadan</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>self-qian</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>ML-SB-TM</t>
+  </si>
+  <si>
+    <t>NS-HCI</t>
+  </si>
+  <si>
+    <t>teng</t>
+  </si>
+  <si>
+    <t>ML-TM-AM</t>
+  </si>
+  <si>
+    <t>PDbiomarkerrsg</t>
+  </si>
+  <si>
+    <t>NNmodelijcai</t>
+  </si>
+  <si>
+    <t>ML-SB-TM-NS</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1254,7 @@
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1184,16 +1265,16 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1240,8 +1321,14 @@
       <c r="V1" t="s">
         <v>9</v>
       </c>
+      <c r="W1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1282,8 +1369,14 @@
       <c r="V2" t="s">
         <v>21</v>
       </c>
+      <c r="W2" t="s">
+        <v>255</v>
+      </c>
+      <c r="X2" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1326,8 +1419,14 @@
       <c r="V3" t="s">
         <v>29</v>
       </c>
+      <c r="W3" t="s">
+        <v>255</v>
+      </c>
+      <c r="X3" t="s">
+        <v>256</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1365,8 +1464,14 @@
       <c r="V4" t="s">
         <v>38</v>
       </c>
+      <c r="W4" t="s">
+        <v>257</v>
+      </c>
+      <c r="X4" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1380,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1410,8 +1515,14 @@
       <c r="V5" t="s">
         <v>46</v>
       </c>
+      <c r="W5" t="s">
+        <v>259</v>
+      </c>
+      <c r="X5" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1451,8 +1562,14 @@
       <c r="V6" t="s">
         <v>49</v>
       </c>
+      <c r="W6" t="s">
+        <v>271</v>
+      </c>
+      <c r="X6" t="s">
+        <v>260</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1480,8 +1597,14 @@
       <c r="V7" t="s">
         <v>60</v>
       </c>
+      <c r="W7" t="s">
+        <v>261</v>
+      </c>
+      <c r="X7" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1498,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1533,8 +1656,14 @@
       <c r="V8" t="s">
         <v>68</v>
       </c>
+      <c r="W8" t="s">
+        <v>259</v>
+      </c>
+      <c r="X8" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1575,8 +1704,14 @@
       <c r="V9" t="s">
         <v>76</v>
       </c>
+      <c r="W9" t="s">
+        <v>255</v>
+      </c>
+      <c r="X9" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1593,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1628,8 +1763,14 @@
       <c r="V10" t="s">
         <v>94</v>
       </c>
+      <c r="W10" t="s">
+        <v>259</v>
+      </c>
+      <c r="X10" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1672,8 +1813,14 @@
       <c r="V11" t="s">
         <v>102</v>
       </c>
+      <c r="W11" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1713,8 +1860,14 @@
       <c r="V12" t="s">
         <v>111</v>
       </c>
+      <c r="W12" t="s">
+        <v>265</v>
+      </c>
+      <c r="X12" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1737,7 +1890,7 @@
         <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K13" t="s">
         <v>125</v>
@@ -1754,8 +1907,14 @@
       <c r="V13" t="s">
         <v>119</v>
       </c>
+      <c r="W13" t="s">
+        <v>267</v>
+      </c>
+      <c r="X13" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1795,8 +1954,14 @@
       <c r="V14" t="s">
         <v>123</v>
       </c>
+      <c r="W14" t="s">
+        <v>259</v>
+      </c>
+      <c r="X14" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1842,8 +2007,14 @@
       <c r="V15" t="s">
         <v>137</v>
       </c>
+      <c r="W15" t="s">
+        <v>257</v>
+      </c>
+      <c r="X15" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1889,8 +2060,14 @@
       <c r="V16" t="s">
         <v>111</v>
       </c>
+      <c r="W16" t="s">
+        <v>269</v>
+      </c>
+      <c r="X16" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1907,7 +2084,7 @@
         <v>114</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1942,8 +2119,14 @@
       <c r="V17" t="s">
         <v>158</v>
       </c>
+      <c r="W17" t="s">
+        <v>270</v>
+      </c>
+      <c r="X17" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1960,7 +2143,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1995,13 +2178,19 @@
       <c r="V18" t="s">
         <v>163</v>
       </c>
+      <c r="W18" t="s">
+        <v>259</v>
+      </c>
+      <c r="X18" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2019,36 +2208,42 @@
         <v>48</v>
       </c>
       <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" t="s">
+        <v>173</v>
+      </c>
+      <c r="R19" t="s">
         <v>172</v>
-      </c>
-      <c r="M19" t="s">
-        <v>175</v>
-      </c>
-      <c r="P19" t="s">
-        <v>174</v>
-      </c>
-      <c r="R19" t="s">
-        <v>173</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="W19" t="s">
+        <v>271</v>
+      </c>
+      <c r="X19" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2060,42 +2255,48 @@
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" t="s">
         <v>178</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>179</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s">
+        <v>182</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V20" t="s">
         <v>180</v>
       </c>
-      <c r="K20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s">
-        <v>183</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V20" t="s">
-        <v>181</v>
+      <c r="W20" t="s">
+        <v>259</v>
+      </c>
+      <c r="X20" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -2107,42 +2308,48 @@
         <v>97</v>
       </c>
       <c r="H21" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" t="s">
         <v>187</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="s">
+        <v>189</v>
+      </c>
+      <c r="P21" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" t="s">
-        <v>199</v>
-      </c>
-      <c r="K21" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M21" t="s">
-        <v>190</v>
-      </c>
-      <c r="P21" t="s">
-        <v>196</v>
-      </c>
-      <c r="R21" t="s">
-        <v>193</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="V21" t="s">
-        <v>189</v>
+      <c r="W21" t="s">
+        <v>274</v>
+      </c>
+      <c r="X21" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2154,39 +2361,45 @@
         <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G22">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="s">
         <v>201</v>
       </c>
-      <c r="J22" t="s">
+      <c r="Q22" t="s">
+        <v>200</v>
+      </c>
+      <c r="V22" t="s">
         <v>198</v>
       </c>
-      <c r="K22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>202</v>
-      </c>
-      <c r="V22" t="s">
-        <v>200</v>
+      <c r="W22" t="s">
+        <v>277</v>
+      </c>
+      <c r="X22" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2198,39 +2411,45 @@
         <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" t="s">
         <v>206</v>
       </c>
-      <c r="I23" t="s">
-        <v>208</v>
-      </c>
       <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>210</v>
+      </c>
+      <c r="V23" t="s">
         <v>207</v>
       </c>
-      <c r="K23" t="s">
-        <v>211</v>
-      </c>
-      <c r="M23" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>212</v>
-      </c>
-      <c r="V23" t="s">
-        <v>209</v>
+      <c r="W23" t="s">
+        <v>277</v>
+      </c>
+      <c r="X23" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2242,39 +2461,45 @@
         <v>114</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
         <v>214</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>217</v>
+      </c>
+      <c r="V24" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
-        <v>216</v>
-      </c>
-      <c r="K24" t="s">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>219</v>
-      </c>
-      <c r="V24" t="s">
-        <v>217</v>
+      <c r="W24" t="s">
+        <v>277</v>
+      </c>
+      <c r="X24" t="s">
+        <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -2286,42 +2511,48 @@
         <v>97</v>
       </c>
       <c r="H25" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V25" t="s">
         <v>222</v>
       </c>
-      <c r="I25" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" t="s">
-        <v>226</v>
-      </c>
-      <c r="K25" t="s">
-        <v>232</v>
-      </c>
-      <c r="M25" t="s">
-        <v>229</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P25" t="s">
-        <v>227</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="V25" t="s">
-        <v>224</v>
+      <c r="W25" t="s">
+        <v>267</v>
+      </c>
+      <c r="X25" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -2333,31 +2564,37 @@
         <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G26">
         <v>27</v>
       </c>
       <c r="H26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
         <v>233</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>236</v>
+      </c>
+      <c r="V26" t="s">
         <v>234</v>
       </c>
-      <c r="J26" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" t="s">
-        <v>240</v>
-      </c>
-      <c r="M26" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>238</v>
-      </c>
-      <c r="V26" t="s">
-        <v>236</v>
+      <c r="W26" t="s">
+        <v>277</v>
+      </c>
+      <c r="X26" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6742B94F-CB43-0742-B02D-E3FC302A38B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F639E5B-67CF-1B44-8E52-00138CBEE4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47300" yWindow="-3340" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="325">
   <si>
     <t>title</t>
   </si>
@@ -71,9 +72,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>miniVox</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>We proposed a novel AI framework to conduct real-time multi-speaker diarization and recognition without prior registration and pretraining in a fully online learning setting. Our contributions are two-fold. First, we proposed a new benchmark to evaluate the rarely studied fully online speaker diarization problem. We built upon existing datasets of real world utterances to automatically curate MiniVox, an experimental environment which generates infinite configurations of continuous multi-speaker speech stream. Secondly, we considered the practical problem of online learning with episodically revealed rewards and introduced a solution based on semi-supervised and self-supervised learning methods. Lastly, we provided a workable web-based recognition system which interactively handles the cold start problem of new user's addition by transferring representations of old arms to new ones with an extendable contextual bandit. We demonstrated that our proposed method obtained robust performance in the online MiniVox framework.</t>
   </si>
   <si>
-    <t>voiceIDdemo</t>
-  </si>
-  <si>
     <t>VoiceID on the fly: A Speaker Recognition System that Learns from Scratch</t>
   </si>
   <si>
@@ -131,9 +126,6 @@
     <t xml:space="preserve">Adaptive Geo-Topological Independence Criterion   </t>
   </si>
   <si>
-    <t>AGTICnips</t>
-  </si>
-  <si>
     <t>Baihan Lin, Nikolaus Kriegeskorte</t>
   </si>
   <si>
@@ -155,9 +147,6 @@
     <t>Online Learning in Iterated Prisoner's Dilemma to Mimic Human Behavior</t>
   </si>
   <si>
-    <t>dilemmaRLnips</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baihan Lin, Djallel Bouneffouf, Guillermo Cecchi </t>
   </si>
   <si>
@@ -185,9 +174,6 @@
     <t xml:space="preserve">Inspired by the adaptation phenomenon of neuronal firing, we propose the regularity normalization (RN) as an unsupervised attention mechanism (UAM) which computes the statistical regularity in the implicit space of neural networks under the Minimum Description Length (MDL) principle. Treating the neural network optimization process as a partially observable model selection problem, UAM constrained the implicit space by a normalization factor, the universal code length. We compute this universal code incrementally across neural network layers and demonstrated the flexibility to include data priors such as top-down attention and other oracle information. Empirically, our approach outperforms existing normalization methods in tackling limited, imbalanced and non-stationary input distribution in computer vision and reinforcement learning tasks. Lastly, UAM tracks dependency and critical learning stages across layers and recurrent time steps of deep networks. </t>
   </si>
   <si>
-    <t>constrainMDL</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/1902.10658</t>
   </si>
   <si>
@@ -203,9 +189,6 @@
     <t>Elongated arm reach after a Pinocchio illusion in Virtual Reality</t>
   </si>
   <si>
-    <t>pinocchio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mar Gonzalez-Franco, Christopher Berger, Baihan Lin, Bigna Lenggenhager, and Jaron Lanier </t>
   </si>
   <si>
@@ -224,9 +207,6 @@
     <t xml:space="preserve">Baihan Lin, Guillermo Cecchi, Djallel Bouneffouf, Jenna Reinen, Irina Rish </t>
   </si>
   <si>
-    <t>unifiedRL</t>
-  </si>
-  <si>
     <t>lin2020unified.png</t>
   </si>
   <si>
@@ -266,9 +246,6 @@
     <t xml:space="preserve">This paper proposed a new interaction paradigm in the virtual reality (VR) environments, which consists of a virtual mirror or window projected onto a virtual surface, representing the correct perspective geometry of a mirror or window reflecting the real world. This technique can be applied to various videos, live streaming apps, augmented and virtual reality settings to provide an interactive and immersive user experience. To support such a perspective-accurate representation, we implemented computer vision algorithms for feature detection and correspondence matching. To constrain the solutions, we incorporated an automatically tuning scaling factor upon the homography transform matrix such that each image frame follows a smooth transition with the user in sight. The system is a real-time rendering framework where users can engage their real-life presence with the virtual space. </t>
   </si>
   <si>
-    <t>v2r</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
@@ -284,9 +261,6 @@
     <t>https://www.youtube.com/watch?v=ZFCMjPiSxIQ</t>
   </si>
   <si>
-    <t>splitQL</t>
-  </si>
-  <si>
     <t>AAMAS 2020</t>
   </si>
   <si>
@@ -329,9 +303,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>splitQLnips</t>
-  </si>
-  <si>
     <t>lin2019reinforce.png</t>
   </si>
   <si>
@@ -350,9 +321,6 @@
     <t>Baihan Lin, Raul Rabadan, Nikolaus Kriegeskorte</t>
   </si>
   <si>
-    <t>scTSAnips</t>
-  </si>
-  <si>
     <t xml:space="preserve">NeurIPS 2019 Workshop on Learning Meaningful Representations of Life (LMRL) </t>
   </si>
   <si>
@@ -380,18 +348,9 @@
     <t>J</t>
   </si>
   <si>
-    <t>andelin2019lack.txt</t>
-  </si>
-  <si>
-    <t>andelin2019lack.pdf</t>
-  </si>
-  <si>
     <t>KDD_MentalRL_slides.pdf</t>
   </si>
   <si>
-    <t>patchjcn</t>
-  </si>
-  <si>
     <t>In albino rats, it has been reported that lateral striate cortex (V1) is highly binocular, and that input from the ipsilateral eye to this region comes through the callosum. In contrast, in Long Evans rats, this region is nearly exclusively dominated by the contralateral eye even though it is richly innervated by the callosum (Laing, Turecek, Takahata, &amp; Olavarria, 2015). We hypothesized that the inability of callosal connections to relay ipsilateral eye input to lateral V1 in Long Evans rats is a consequence of the existence of ocular dominance columns (ODCs), and of callosal patches in register with ipsilateral ODCs in the binocular region of V1 (Laing et al., 2015). We therefore predicted that in albino rats input from both eyes intermix in the binocular region, without segregating into ODCs, and that callosal connections are not patchy. Confirming our predictions, we found that inputs from both eyes, studied with the transneuronal tracer WGA-HRP, are intermixed in the binocular zone of albinos, without segregating into ODCs. Similarly, we found that callosal connections in albino rats are not patchy but instead are distributed homogeneously throughout the callosal region in V1. We propose that these changes allow the transcallosal passage of ipsilateral eye input to lateral striate cortex, increasing its binocularity. Thus, the binocular region in V1 of albino rats includes lateral striate cortex, being therefore about 25% larger in area than the binocular region in Long Evans rats. Our findings provide insight on the role of callosal connections in generating binocular cells.</t>
   </si>
   <si>
@@ -410,18 +369,12 @@
     <t>lin2019modeling.txt</t>
   </si>
   <si>
-    <t>andelin2019lack.png</t>
-  </si>
-  <si>
     <t>lin2019modeling.png</t>
   </si>
   <si>
     <t>https://home.mcleanhospital.org/tips</t>
   </si>
   <si>
-    <t>modelRL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Visualizing Representational Dynamics with Multidimensional Scaling Alignment </t>
   </si>
   <si>
@@ -434,9 +387,6 @@
     <t>https://arxiv.org/abs/1906.09264</t>
   </si>
   <si>
-    <t>RepDynccn</t>
-  </si>
-  <si>
     <t>https://ccneuro.org/2019/Papers/ViewPapers.asp?PaperNum=1424</t>
   </si>
   <si>
@@ -455,9 +405,6 @@
     <t>CCN_MDA_poster.pdf</t>
   </si>
   <si>
-    <t>scTSAismb</t>
-  </si>
-  <si>
     <t>Cliques of single-cell RNA-seq profiles reveal insights into cell ecology during development and differentiation</t>
   </si>
   <si>
@@ -494,9 +441,6 @@
     <t>chen2019self.png</t>
   </si>
   <si>
-    <t>selfAssjacs</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/toc/jacsat/141/22</t>
   </si>
   <si>
@@ -512,9 +456,6 @@
     <t>Modular self-assembly of biomolecules in two dimensions (2D) is straightforward with DNA but has been difficult to realize with proteins, due to the lack of modular specificity similar to Watson–Crick base pairing. Here we describe a general approach to design 2D arrays using de novo designed pseudosymmetric protein building blocks. A homodimeric helical bundle was reconnected into a monomeric building block, and the surface was redesigned in Rosetta to enable self-assembly into a 2D array in the C12 layer symmetry group. Two out of ten designed arrays assembled to micrometer scale under negative stain electron microscopy, and displayed the designed lattice geometry with assembly size up to 100 nm under atomic force microscopy. The design of 2D arrays with pseudosymmetric building blocks is an important step toward the design of programmable protein self-assembly via pseudosymmetric patterning of orthogonal binding interfaces.</t>
   </si>
   <si>
-    <t>SQLijcai</t>
-  </si>
-  <si>
     <t>Split Q Learning: Reinforcement Learning with Two-Stream Rewards</t>
   </si>
   <si>
@@ -590,9 +531,6 @@
     <t>lin2018adaptive.jpg</t>
   </si>
   <si>
-    <t>ABaCoDEicdm</t>
-  </si>
-  <si>
     <t>Parkinson’s disease digital biomarker discovery with optimized transitions and inferred markov emissions</t>
   </si>
   <si>
@@ -659,9 +597,6 @@
     <t xml:space="preserve">Recently, Zika virus (ZIKV) has been recognized as a significant threat to global public health. The disease was present in large parts of the Americas, the Caribbean, and also the western Pacific area with southern Asia during 2015 and 2016. However, little is known about the factors affecting the transmission of ZIKV. We used Gradient Boosted Regression Tree models to investigate the effects of various potential explanatory variables on the spread of ZIKV, and used current with historical information from a range of sources to assess the risks of future ZIKV outbreaks. Our results indicated that the probability of ZIKV outbreaks increases with vapor pressure, the occurrence of Dengue virus, and population density but decreases as health expenditure, GDP, and numbers of travelers. The predictive results revealed the potential risk countries of ZIKV infection in the Asia-Pacific regions between October 2016 and January 2017. We believe that the high-risk conditions would continue in South Asia and Australia over this period. By integrating information on eco-environmental, social-economical, and ZIKV-related niche factors, this study estimated the probability for locally acquired mosquito-borne ZIKV infections in the Asia-Pacific region and improves the ability to forecast, and possibly even prevent, future outbreaks of ZIKV. </t>
   </si>
   <si>
-    <t>ModelZika</t>
-  </si>
-  <si>
     <t>teng2017model.png</t>
   </si>
   <si>
@@ -683,9 +618,6 @@
     <t xml:space="preserve">Zika virus (ZIKV) infection is an emerging global threat that is suspected to be associated with fetal microcephaly. However, the molecular mechanisms underlying ZIKV disease pathogenesis in humans remain elusive. Here, we investigated the human protein interaction network associated with ZIKV infection using a systemic virology approach, and reconstructed the transcriptional regulatory network to analyze the mechanisms underlying ZIKV-elicited microcephaly pathogenesis. The bioinformatics findings in this study show that P53 is the hub of the genetic regulatory network for ZIKV-related and microcephaly-associated proteins. Importantly, these results imply that the ZIKV capsid protein interacts with mouse double-minute-2 homolog (MDM2), which is involved in the P53-mediated apoptosis pathway, activating the death of infected neural cells. We also found that synthetic mimics of the ZIKV capsid protein induced cell death in vitro and in vivo. This study provides important insight into the relationship between ZIKV infection and brain diseases. </t>
   </si>
   <si>
-    <t>IntegrateZika</t>
-  </si>
-  <si>
     <t>teng2017integrative.pdf</t>
   </si>
   <si>
@@ -704,9 +636,6 @@
     <t xml:space="preserve">What is the effect of sensory deprivation on brain development? Ocular Dominance Columns (ODCs) have been extensively used to study the mechanism of cortical plasticity, despite specific functions of ODCs elusive. Using a combination of transneuronal tracing, in situ hybridization for the immediate early gene Zif268 and electrophysiological recordings, our lab recently showed that the primary visual cortex (V1) in pigmented rats has ODCs correlated with callosal inputs from the opposite hemispheres. Using similar methods, my project aims to understand the effect of monocular deprivation (MD) on the newly discovered system of ODCs in rat visual cortex. I hypothesized that the manipulation of visual input would impact the development and recovery of eye-specific circuitry. By disrupting the visual input permanently or temporarily in early postnatal life, our lab has been able to measure the deleterious effects on map development, critical periods for these effects and potential for recovery. My project used monocular eyelid suture and enucleation to study the effect of MD on the organization of ODCs in pigmented rats. By using our experience-dependent model we expect to elucidate the principles and mechanisms underlying the development of cortical modular architecture in mammals. My result showed a clear shift in Hubel-Wiesel ocular dominance scale in central segment and clear desegregation in ODC in MD rats. I also developed a Java-based software and Matlab protocol to quantify this model. As our hypothesis is supported, our novel model may shed new lights on plasticity research, which can guide future clinical studies on the treatment and prognosis of patients suffering eye defects during early development by either innate or incidental pathological causes. </t>
   </si>
   <si>
-    <t>ODCneurofuture</t>
-  </si>
-  <si>
     <t>NeuroFutures Conference 2016</t>
   </si>
   <si>
@@ -746,9 +675,6 @@
     <t>teng2015systematic.pdf</t>
   </si>
   <si>
-    <t>systemEBOV</t>
-  </si>
-  <si>
     <t>teng2015systematic.png</t>
   </si>
   <si>
@@ -872,13 +798,217 @@
     <t>ML-TM-AM</t>
   </si>
   <si>
-    <t>PDbiomarkerrsg</t>
-  </si>
-  <si>
-    <t>NNmodelijcai</t>
-  </si>
-  <si>
     <t>ML-SB-TM-NS</t>
+  </si>
+  <si>
+    <t>andelin2020influence.png</t>
+  </si>
+  <si>
+    <t>andelin2020influence.txt</t>
+  </si>
+  <si>
+    <t>andelin2020influence.pdf</t>
+  </si>
+  <si>
+    <t>SB-TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personalized Genome Group </t>
+  </si>
+  <si>
+    <t>BGI</t>
+  </si>
+  <si>
+    <t>NS-SB-AM-TM</t>
+  </si>
+  <si>
+    <t>State Key Lab of Pathogen &amp; Biosecurity</t>
+  </si>
+  <si>
+    <t>BIME</t>
+  </si>
+  <si>
+    <t>Vision Neuroscience Lab (PI: Olavarria)</t>
+  </si>
+  <si>
+    <t>SB-AM</t>
+  </si>
+  <si>
+    <t>Biophysics Lab of Applied Math (PI: Qian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute for Protein Design (PI: Baker) </t>
+  </si>
+  <si>
+    <t>HCI-ML-TM</t>
+  </si>
+  <si>
+    <t>UbiComp Lab of CSE &amp; EE (PI: Patel)</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
+    <t>SB-ML-TM</t>
+  </si>
+  <si>
+    <t>Comp Bio Lab of CS (PI: Pe’er)</t>
+  </si>
+  <si>
+    <t>SB-ML-GT</t>
+  </si>
+  <si>
+    <t>Math Genomics Lab of DSB (PI: Rabadan)</t>
+  </si>
+  <si>
+    <t>NS-ML-CV-GT-IT</t>
+  </si>
+  <si>
+    <t>Neuro Theory Center (PI: Qian)</t>
+  </si>
+  <si>
+    <t>NS-ML-CV-GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual Inference Lab (PI: Kriegeskorte) </t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>NS-CV-HCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC &amp; HCI Groups </t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>NS-ML-CV-GT-TM</t>
+  </si>
+  <si>
+    <t>CompNeuro &amp; AI Foundations Groups</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>NS-ML-CV-IT-GT-SB-HCI-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostly single-authored </t>
+  </si>
+  <si>
+    <t>my own time</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>pubs</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>qian</t>
+  </si>
+  <si>
+    <t>rabadan</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>uwqian</t>
+  </si>
+  <si>
+    <t>bgi</t>
+  </si>
+  <si>
+    <t>teng2015systematic</t>
+  </si>
+  <si>
+    <t>lin2016odc</t>
+  </si>
+  <si>
+    <t>lin2020speaker</t>
+  </si>
+  <si>
+    <t>lin2020voice</t>
+  </si>
+  <si>
+    <t>lin2018adgtic</t>
+  </si>
+  <si>
+    <t>lin2020online</t>
+  </si>
+  <si>
+    <t>lin2019constraining</t>
+  </si>
+  <si>
+    <t>gonzalez2019enhance</t>
+  </si>
+  <si>
+    <t>lin2020unified</t>
+  </si>
+  <si>
+    <t>lin2020keep</t>
+  </si>
+  <si>
+    <t>lin2020astory</t>
+  </si>
+  <si>
+    <t>lin2019reinforce</t>
+  </si>
+  <si>
+    <t>lin2019what</t>
+  </si>
+  <si>
+    <t>andelin2020influence</t>
+  </si>
+  <si>
+    <t>lin2019modeling</t>
+  </si>
+  <si>
+    <t>lin2019visualize</t>
+  </si>
+  <si>
+    <t>lin2019cliques</t>
+  </si>
+  <si>
+    <t>chen2019self</t>
+  </si>
+  <si>
+    <t>lin2019split</t>
+  </si>
+  <si>
+    <t>lin2018contextual</t>
+  </si>
+  <si>
+    <t>lin2019neural</t>
+  </si>
+  <si>
+    <t>bukkittu2017parkinson</t>
+  </si>
+  <si>
+    <t>teng2017model</t>
+  </si>
+  <si>
+    <t>teng2017integrative</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,25 +1386,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1295,25 +1425,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1322,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="X1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1333,47 +1463,47 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
       <c r="W2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="X2" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1381,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1390,40 +1520,40 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
       <c r="W3" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="X3" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1431,44 +1561,44 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="S4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="T4" s="1"/>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="X4" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1476,50 +1606,50 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1527,46 +1657,46 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
       <c r="S6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="X6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1574,34 +1704,34 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="X7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1609,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1618,49 +1748,49 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" t="s">
-        <v>68</v>
-      </c>
       <c r="W8" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X8" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1668,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1677,38 +1807,38 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="T9" s="1"/>
       <c r="V9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W9" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="X9" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1716,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1725,49 +1855,49 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" t="s">
-        <v>94</v>
-      </c>
       <c r="W10" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X10" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1775,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1784,40 +1914,40 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="W11" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X11" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1825,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1834,37 +1964,37 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
         <v>97</v>
       </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="W12" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="X12" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1872,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -1881,37 +2011,37 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="Q13" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="V13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="W13" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="X13" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1919,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -1928,37 +2058,37 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="W14" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X14" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -1966,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -1975,43 +2105,43 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="M15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="V15" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="W15" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="X15" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2019,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2028,43 +2158,43 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="R16" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="V16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="W16" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="X16" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2072,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2081,49 +2211,49 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="V17" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="W17" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="X17" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2131,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2140,49 +2270,49 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="R18" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="W18" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X18" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2190,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2199,43 +2329,43 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M19" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="W19" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="X19" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2243,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2252,43 +2382,43 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="V20" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="W20" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="X20" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2296,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -2305,43 +2435,43 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="R21" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="V21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="W21" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="X21" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2349,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2358,40 +2488,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G22">
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q22" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="V22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="W22" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="X22" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2399,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2408,40 +2538,40 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="Q23" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="W23" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2449,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2458,40 +2588,40 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="Q24" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="V24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="W24" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="X24" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2499,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -2508,43 +2638,43 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="V25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="W25" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2552,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -2561,40 +2691,40 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="G26">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="Q26" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="V26" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="W26" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2657,4 +2787,289 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00934522-8918-5F4D-855B-4574586BDBC0}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F639E5B-67CF-1B44-8E52-00138CBEE4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6320E010-F85A-1447-B0F0-227D807CE538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47300" yWindow="-3340" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6320E010-F85A-1447-B0F0-227D807CE538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612687E-A565-C74F-9608-FFBB548158C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47300" yWindow="-3340" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="47640" yWindow="-120" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,21 +186,9 @@
     <t>https://github.com/doerlbh/UnsupervisedAttentionMechanism</t>
   </si>
   <si>
-    <t>Elongated arm reach after a Pinocchio illusion in Virtual Reality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar Gonzalez-Franco, Christopher Berger, Baihan Lin, Bigna Lenggenhager, and Jaron Lanier </t>
-  </si>
-  <si>
     <t xml:space="preserve">manuscript in preparation </t>
   </si>
   <si>
-    <t>gonzalez2019enhance.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perceived extension of the reach of one’s arm was observed in healthy humans after eliciting a Pinocchio Illusion—whereby a participant’s nose is illusorily elongated—in Virtual Reality. Self-administered tapping on the tip of the nose of the participants’ virtual avatar (using a hand-held controller) while the nose of the avatar slowly grew, produced a Pinocchio illusion an implicit outward drift in the participants’ arm, and the elongation of the perceived reach of their arm. We found a positive correlation between the extent of the implicit outward drift of the participants arm and the perceived reachability of distal objects. These results were found, both when the participants’ real nose was stimulated and when it was not. These findings are discussed in the context of theories on body schema and ownership, and open new avenues for hand grasp interaction with virtual objects out of arm’s-reach inside immersive setups. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unified Models of Human Behavioral Agents in Bandits, Contextual Bandits and RL </t>
   </si>
   <si>
@@ -960,9 +948,6 @@
     <t>lin2019constraining</t>
   </si>
   <si>
-    <t>gonzalez2019enhance</t>
-  </si>
-  <si>
     <t>lin2020unified</t>
   </si>
   <si>
@@ -1009,6 +994,21 @@
   </si>
   <si>
     <t>teng2017integrative</t>
+  </si>
+  <si>
+    <t>Follow Your Nose: Extended Arm Reach After Pinocchio Illusion in Virtual Reality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Berger, Baihan Lin, Bigna Lenggenhager, Jaron Lanier, Mar Gonzalez-Franco </t>
+  </si>
+  <si>
+    <t>In this study, we recreated the Pinocchio Illusion—a bodily illusion whereby the perceived length of the own nose is extended—in Virtual Reality. Participants (n = 38) self-administered tapping on the tip of the nose of their embodied virtual avatar (using a hand-held controller) while the nose of the avatar slowly grew with each tap. The stimulating arm and the nose of the virtual avatar were attached such that while the nose grew the arm of the avatar also grew by 50% after it was fully extended. This produced an extension of the perceived reach of their arm, and an outward drift in the participants’ real arm. A positive correlation between the extent of the outward drift of the participants’ arm and the perceived reachability of distal objects was observed. These results were also found without tactile stimulation on the participants nose, but not for control conditions in which the visuomotor synchrony or body schema were violated. These findings open new avenues for hand grasp interactions with virtual objects out of arm’s-reach in immersive setups, and are discussed in the context of theories on body schema, touch perception, and ownership.</t>
+  </si>
+  <si>
+    <t>berger2020follow</t>
+  </si>
+  <si>
+    <t>berger2020follow.gif</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1425,25 +1425,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1452,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="X1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="X2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>19</v>
@@ -1550,10 +1550,10 @@
         <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="X3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1646,10 +1646,10 @@
         <v>42</v>
       </c>
       <c r="W5" t="s">
+        <v>230</v>
+      </c>
+      <c r="X5" t="s">
         <v>234</v>
-      </c>
-      <c r="X5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>49</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s">
         <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="X6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1713,25 +1713,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="W7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="X7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1751,46 +1751,46 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
+      <c r="R8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="T8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V8" t="s">
-        <v>61</v>
-      </c>
       <c r="W8" t="s">
+        <v>230</v>
+      </c>
+      <c r="X8" t="s">
         <v>234</v>
-      </c>
-      <c r="X8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1810,35 +1810,35 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
       </c>
       <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="T9" s="1"/>
       <c r="V9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="W9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="X9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1858,46 +1858,46 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="T10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" t="s">
-        <v>85</v>
-      </c>
       <c r="W10" t="s">
+        <v>230</v>
+      </c>
+      <c r="X10" t="s">
         <v>234</v>
-      </c>
-      <c r="X10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1914,40 +1914,40 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" t="s">
         <v>88</v>
       </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" t="s">
-        <v>92</v>
-      </c>
       <c r="W11" t="s">
+        <v>230</v>
+      </c>
+      <c r="X11" t="s">
         <v>234</v>
-      </c>
-      <c r="X11" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1964,37 +1964,37 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
         <v>93</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>94</v>
       </c>
-      <c r="J12" t="s">
+      <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="V12" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12" t="s">
-        <v>100</v>
-      </c>
       <c r="W12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="X12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -2011,37 +2011,37 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" t="s">
+        <v>251</v>
+      </c>
+      <c r="M13" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>253</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" t="s">
-        <v>227</v>
-      </c>
-      <c r="K13" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>257</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V13" t="s">
-        <v>105</v>
-      </c>
       <c r="W13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="X13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2058,37 +2058,37 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="W14" t="s">
+        <v>230</v>
+      </c>
+      <c r="X14" t="s">
         <v>234</v>
-      </c>
-      <c r="X14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2108,40 +2108,40 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="V15" t="s">
         <v>116</v>
       </c>
-      <c r="M15" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V15" t="s">
-        <v>120</v>
-      </c>
       <c r="W15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2158,43 +2158,43 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
       <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
         <v>125</v>
       </c>
-      <c r="K16" t="s">
-        <v>129</v>
-      </c>
       <c r="M16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" t="s">
         <v>124</v>
       </c>
-      <c r="P16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" t="s">
-        <v>128</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="V16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="X16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2211,49 +2211,49 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
         <v>130</v>
       </c>
-      <c r="I17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K17" t="s">
+      <c r="Q17" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="V17" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" t="s">
-        <v>136</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V17" t="s">
-        <v>139</v>
-      </c>
       <c r="W17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="X17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2273,46 +2273,46 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
         <v>142</v>
       </c>
-      <c r="K18" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M18" t="s">
-        <v>146</v>
-      </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W18" t="s">
+        <v>230</v>
+      </c>
+      <c r="X18" t="s">
         <v>234</v>
-      </c>
-      <c r="X18" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2332,40 +2332,40 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
         <v>44</v>
       </c>
       <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s">
         <v>150</v>
       </c>
-      <c r="K19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" t="s">
-        <v>154</v>
-      </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="X19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2385,40 +2385,40 @@
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="s">
+        <v>158</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" t="s">
-        <v>162</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="X20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -2435,43 +2435,43 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
         <v>165</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J21" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" t="s">
         <v>169</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="R21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="P21" t="s">
-        <v>173</v>
-      </c>
-      <c r="R21" t="s">
-        <v>171</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="V21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="W21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="X21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2488,40 +2488,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G22">
         <v>71</v>
       </c>
       <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
         <v>174</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
         <v>178</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" t="s">
         <v>175</v>
       </c>
-      <c r="K22" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>179</v>
-      </c>
       <c r="V22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2538,40 +2538,40 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
         <v>183</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>185</v>
       </c>
-      <c r="J23" t="s">
+      <c r="Q23" t="s">
         <v>184</v>
       </c>
-      <c r="K23" t="s">
-        <v>187</v>
-      </c>
-      <c r="M23" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>188</v>
-      </c>
       <c r="V23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="W23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2588,40 +2588,40 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" t="s">
         <v>190</v>
       </c>
-      <c r="I24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K24" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>194</v>
-      </c>
       <c r="V24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="W24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -2638,43 +2638,43 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" t="s">
         <v>197</v>
       </c>
-      <c r="I25" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="S25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K25" t="s">
-        <v>206</v>
-      </c>
-      <c r="M25" t="s">
-        <v>203</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P25" t="s">
-        <v>201</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="V25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -2691,40 +2691,40 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G26">
         <v>27</v>
       </c>
       <c r="H26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s">
         <v>207</v>
       </c>
-      <c r="I26" t="s">
+      <c r="Q26" t="s">
         <v>208</v>
       </c>
-      <c r="J26" t="s">
-        <v>209</v>
-      </c>
-      <c r="K26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>212</v>
-      </c>
       <c r="V26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2806,25 +2806,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,19 +2832,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,19 +2852,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" t="s">
         <v>280</v>
       </c>
-      <c r="C3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" t="s">
-        <v>284</v>
-      </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2892,19 +2892,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +2915,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,13 +2932,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,13 +2949,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,16 +2966,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,13 +2986,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,13 +3020,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,16 +3037,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,16 +3057,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612687E-A565-C74F-9608-FFBB548158C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA04C48-FBF6-E545-8C4A-DF6D19E97408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47640" yWindow="-120" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="47640" yWindow="-3120" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>https://www.youtube.com/watch?v=2d_a1EnIvm4</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Y0t-gd7Uz-w</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CQBdQz1bmls</t>
   </si>
   <si>
@@ -1009,6 +1006,9 @@
   </si>
   <si>
     <t>berger2020follow.gif</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QqLnFS5_rCs</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
@@ -1452,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1" t="s">
         <v>224</v>
-      </c>
-      <c r="X1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>20</v>
       </c>
       <c r="W2" t="s">
+        <v>225</v>
+      </c>
+      <c r="X2" t="s">
         <v>226</v>
-      </c>
-      <c r="X2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>19</v>
@@ -1550,10 +1550,10 @@
         <v>27</v>
       </c>
       <c r="W3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X3" t="s">
         <v>226</v>
-      </c>
-      <c r="X3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>35</v>
       </c>
       <c r="W4" t="s">
+        <v>227</v>
+      </c>
+      <c r="X4" t="s">
         <v>228</v>
-      </c>
-      <c r="X4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1646,10 +1646,10 @@
         <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>49</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V6" t="s">
         <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1713,25 +1713,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" t="s">
         <v>320</v>
-      </c>
-      <c r="I7" t="s">
-        <v>321</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1751,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>56</v>
@@ -1787,10 +1787,10 @@
         <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1835,10 +1835,10 @@
         <v>65</v>
       </c>
       <c r="W9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1858,46 +1858,46 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>75</v>
-      </c>
       <c r="R10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1914,40 +1914,40 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1964,37 +1964,37 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
         <v>89</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="S12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" t="s">
         <v>95</v>
       </c>
-      <c r="V12" t="s">
-        <v>96</v>
-      </c>
       <c r="W12" t="s">
+        <v>235</v>
+      </c>
+      <c r="X12" t="s">
         <v>236</v>
-      </c>
-      <c r="X12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -2011,37 +2011,37 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
-        <v>98</v>
-      </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
         <v>251</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>252</v>
       </c>
-      <c r="Q13" t="s">
-        <v>253</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2058,37 +2058,37 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2108,40 +2108,40 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
         <v>109</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>110</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="S15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" t="s">
-        <v>118</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="V15" t="s">
         <v>115</v>
       </c>
-      <c r="V15" t="s">
-        <v>116</v>
-      </c>
       <c r="W15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2158,43 +2158,43 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
       <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="s">
         <v>121</v>
       </c>
-      <c r="K16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="s">
         <v>122</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>123</v>
       </c>
-      <c r="R16" t="s">
-        <v>124</v>
-      </c>
       <c r="S16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V16" t="s">
         <v>95</v>
       </c>
-      <c r="V16" t="s">
-        <v>96</v>
-      </c>
       <c r="W16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2211,49 +2211,49 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="I17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
-      </c>
       <c r="K17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" t="s">
         <v>134</v>
       </c>
-      <c r="V17" t="s">
-        <v>135</v>
-      </c>
       <c r="W17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2273,46 +2273,46 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2332,40 +2332,40 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
         <v>44</v>
       </c>
       <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R19" t="s">
         <v>147</v>
-      </c>
-      <c r="M19" t="s">
-        <v>150</v>
-      </c>
-      <c r="P19" t="s">
-        <v>149</v>
-      </c>
-      <c r="R19" t="s">
-        <v>148</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2385,40 +2385,40 @@
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>154</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" t="s">
         <v>155</v>
       </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" t="s">
-        <v>158</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V20" t="s">
-        <v>156</v>
-      </c>
       <c r="W20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -2435,43 +2435,43 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" t="s">
         <v>161</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" t="s">
+        <v>168</v>
+      </c>
+      <c r="R21" t="s">
+        <v>166</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V21" t="s">
         <v>162</v>
       </c>
-      <c r="J21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s">
-        <v>164</v>
-      </c>
-      <c r="P21" t="s">
-        <v>169</v>
-      </c>
-      <c r="R21" t="s">
-        <v>167</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V21" t="s">
-        <v>163</v>
-      </c>
       <c r="W21" t="s">
+        <v>244</v>
+      </c>
+      <c r="X21" t="s">
         <v>245</v>
-      </c>
-      <c r="X21" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2488,40 +2488,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22">
         <v>71</v>
       </c>
       <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
         <v>170</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" t="s">
         <v>174</v>
       </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>175</v>
-      </c>
       <c r="V22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W22" t="s">
+        <v>247</v>
+      </c>
+      <c r="X22" t="s">
         <v>248</v>
-      </c>
-      <c r="X22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2538,40 +2538,40 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
         <v>179</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>183</v>
+      </c>
+      <c r="V23" t="s">
         <v>181</v>
       </c>
-      <c r="J23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>184</v>
-      </c>
-      <c r="V23" t="s">
-        <v>182</v>
-      </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2588,40 +2588,40 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" t="s">
         <v>186</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>187</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>189</v>
+      </c>
+      <c r="V24" t="s">
         <v>188</v>
       </c>
-      <c r="K24" t="s">
-        <v>192</v>
-      </c>
-      <c r="M24" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>190</v>
-      </c>
-      <c r="V24" t="s">
-        <v>189</v>
-      </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -2638,43 +2638,43 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" t="s">
         <v>193</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" t="s">
+        <v>196</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V25" t="s">
         <v>194</v>
       </c>
-      <c r="J25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M25" t="s">
-        <v>199</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P25" t="s">
-        <v>197</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="V25" t="s">
-        <v>195</v>
-      </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -2691,40 +2691,40 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G26">
         <v>27</v>
       </c>
       <c r="H26" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" t="s">
         <v>203</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>204</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>207</v>
+      </c>
+      <c r="V26" t="s">
         <v>205</v>
       </c>
-      <c r="K26" t="s">
-        <v>209</v>
-      </c>
-      <c r="M26" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>208</v>
-      </c>
-      <c r="V26" t="s">
-        <v>206</v>
-      </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2806,25 +2806,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
         <v>290</v>
-      </c>
-      <c r="B1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,19 +2832,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,19 +2852,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2892,19 +2892,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +2915,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,13 +2932,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,13 +2949,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,16 +2966,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,13 +2986,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,13 +3020,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,16 +3037,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,16 +3057,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA04C48-FBF6-E545-8C4A-DF6D19E97408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF15003-6A4B-994E-81E4-E3A30C66D701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47640" yWindow="-3120" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="9160" yWindow="3040" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1618,7 @@
         <v>215</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -1754,7 +1754,7 @@
         <v>213</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
@@ -1861,7 +1861,7 @@
         <v>214</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>71</v>
@@ -2276,7 +2276,7 @@
         <v>212</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>135</v>
@@ -2388,7 +2388,7 @@
         <v>220</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
         <v>152</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF15003-6A4B-994E-81E4-E3A30C66D701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC044B-E3A0-E646-BE1A-2E45AE1DF43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="3040" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>video</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=2d_a1EnIvm4</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CQBdQz1bmls</t>
   </si>
   <si>
@@ -1009,6 +1006,9 @@
   </si>
   <si>
     <t>https://youtu.be/QqLnFS5_rCs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CpOK5yXsaDE</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
-        <v>79</v>
-      </c>
       <c r="Q1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
@@ -1452,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X1" t="s">
         <v>223</v>
-      </c>
-      <c r="X1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>20</v>
       </c>
       <c r="W2" t="s">
+        <v>224</v>
+      </c>
+      <c r="X2" t="s">
         <v>225</v>
-      </c>
-      <c r="X2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>19</v>
@@ -1550,10 +1550,10 @@
         <v>27</v>
       </c>
       <c r="W3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" t="s">
         <v>225</v>
-      </c>
-      <c r="X3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>35</v>
       </c>
       <c r="W4" t="s">
+        <v>226</v>
+      </c>
+      <c r="X4" t="s">
         <v>227</v>
-      </c>
-      <c r="X4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1646,10 +1646,10 @@
         <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>49</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V6" t="s">
         <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1713,25 +1713,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" t="s">
         <v>319</v>
-      </c>
-      <c r="I7" t="s">
-        <v>320</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1751,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1775,22 +1775,22 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="V8" t="s">
         <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1835,10 +1835,10 @@
         <v>65</v>
       </c>
       <c r="W9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1858,46 +1858,46 @@
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
         <v>73</v>
       </c>
-      <c r="M10" t="s">
-        <v>74</v>
-      </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1914,40 +1914,40 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>85</v>
-      </c>
-      <c r="P11" t="s">
-        <v>86</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1964,37 +1964,37 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
         <v>88</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
         <v>90</v>
       </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="S12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P12" t="s">
-        <v>91</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="V12" t="s">
-        <v>95</v>
-      </c>
       <c r="W12" t="s">
+        <v>234</v>
+      </c>
+      <c r="X12" t="s">
         <v>235</v>
-      </c>
-      <c r="X12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -2011,37 +2011,37 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
-        <v>97</v>
-      </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" t="s">
         <v>250</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>251</v>
       </c>
-      <c r="Q13" t="s">
-        <v>252</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2058,37 +2058,37 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
         <v>44</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2108,40 +2108,40 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" t="s">
         <v>108</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>109</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="S15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="V15" t="s">
         <v>114</v>
       </c>
-      <c r="V15" t="s">
-        <v>115</v>
-      </c>
       <c r="W15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2158,43 +2158,43 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
       <c r="J16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
         <v>120</v>
       </c>
-      <c r="K16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>122</v>
       </c>
-      <c r="R16" t="s">
-        <v>123</v>
-      </c>
       <c r="S16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" t="s">
         <v>94</v>
       </c>
-      <c r="V16" t="s">
-        <v>95</v>
-      </c>
       <c r="W16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2211,49 +2211,49 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
         <v>125</v>
       </c>
-      <c r="I17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" t="s">
-        <v>126</v>
-      </c>
       <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N17" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" t="s">
         <v>133</v>
       </c>
-      <c r="V17" t="s">
-        <v>134</v>
-      </c>
       <c r="W17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2273,46 +2273,46 @@
         <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2332,40 +2332,40 @@
         <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
         <v>44</v>
       </c>
       <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
+        <v>147</v>
+      </c>
+      <c r="R19" t="s">
         <v>146</v>
-      </c>
-      <c r="M19" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" t="s">
-        <v>148</v>
-      </c>
-      <c r="R19" t="s">
-        <v>147</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2385,40 +2385,40 @@
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20">
         <v>13</v>
       </c>
       <c r="H20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" t="s">
         <v>152</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>153</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="s">
+        <v>156</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V20" t="s">
         <v>154</v>
       </c>
-      <c r="K20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" t="s">
-        <v>157</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="V20" t="s">
-        <v>155</v>
-      </c>
       <c r="W20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -2435,43 +2435,43 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" t="s">
         <v>160</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V21" t="s">
         <v>161</v>
       </c>
-      <c r="J21" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M21" t="s">
-        <v>163</v>
-      </c>
-      <c r="P21" t="s">
-        <v>168</v>
-      </c>
-      <c r="R21" t="s">
-        <v>166</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V21" t="s">
-        <v>162</v>
-      </c>
       <c r="W21" t="s">
+        <v>243</v>
+      </c>
+      <c r="X21" t="s">
         <v>244</v>
-      </c>
-      <c r="X21" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2488,40 +2488,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22">
         <v>71</v>
       </c>
       <c r="H22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
         <v>169</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q22" t="s">
         <v>173</v>
       </c>
-      <c r="J22" t="s">
-        <v>170</v>
-      </c>
-      <c r="K22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>174</v>
-      </c>
       <c r="V22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W22" t="s">
+        <v>246</v>
+      </c>
+      <c r="X22" t="s">
         <v>247</v>
-      </c>
-      <c r="X22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2538,40 +2538,40 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
         <v>178</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>182</v>
+      </c>
+      <c r="V23" t="s">
         <v>180</v>
       </c>
-      <c r="J23" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" t="s">
-        <v>182</v>
-      </c>
-      <c r="M23" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>183</v>
-      </c>
-      <c r="V23" t="s">
-        <v>181</v>
-      </c>
       <c r="W23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2588,40 +2588,40 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" t="s">
         <v>185</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>186</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>188</v>
+      </c>
+      <c r="V24" t="s">
         <v>187</v>
       </c>
-      <c r="K24" t="s">
-        <v>191</v>
-      </c>
-      <c r="M24" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>189</v>
-      </c>
-      <c r="V24" t="s">
-        <v>188</v>
-      </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25">
         <v>2016</v>
@@ -2638,43 +2638,43 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" t="s">
         <v>192</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" t="s">
+        <v>195</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V25" t="s">
         <v>193</v>
       </c>
-      <c r="J25" t="s">
-        <v>195</v>
-      </c>
-      <c r="K25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M25" t="s">
-        <v>198</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="P25" t="s">
-        <v>196</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="V25" t="s">
-        <v>194</v>
-      </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -2691,40 +2691,40 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>27</v>
       </c>
       <c r="H26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" t="s">
         <v>202</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>203</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>206</v>
+      </c>
+      <c r="V26" t="s">
         <v>204</v>
       </c>
-      <c r="K26" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>207</v>
-      </c>
-      <c r="V26" t="s">
-        <v>205</v>
-      </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2806,25 +2806,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
         <v>289</v>
-      </c>
-      <c r="B1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,19 +2832,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,19 +2852,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2875,16 +2875,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2892,19 +2892,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +2915,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,13 +2932,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,13 +2949,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,16 +2966,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,13 +2986,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,13 +3020,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,16 +3037,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,16 +3057,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC044B-E3A0-E646-BE1A-2E45AE1DF43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1E4F7-484F-4840-A184-04F3CA8B26EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="335">
   <si>
     <t>title</t>
   </si>
@@ -186,9 +186,6 @@
     <t>https://github.com/doerlbh/UnsupervisedAttentionMechanism</t>
   </si>
   <si>
-    <t xml:space="preserve">manuscript in preparation </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unified Models of Human Behavioral Agents in Bandits, Contextual Bandits and RL </t>
   </si>
   <si>
@@ -1009,6 +1006,39 @@
   </si>
   <si>
     <t>https://youtu.be/CpOK5yXsaDE</t>
+  </si>
+  <si>
+    <t>lin2020semi</t>
+  </si>
+  <si>
+    <t>Online Semi-Supervised Learning in Contextual Bandits with Episodic Reward</t>
+  </si>
+  <si>
+    <t>lin2020semi.png</t>
+  </si>
+  <si>
+    <t>lin2020semi.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/doerlbh/BerlinUCB</t>
+  </si>
+  <si>
+    <t>We considered a novel practical problem of online learning with episodically revealed rewards, motivated by several real-world applications, where the contexts are nonstationary over different episodes and the reward feedbacks are not always available to the decision making agents. For this online semi-supervised learning setting, we introduced Background Episodic Reward LinUCB (BerlinUCB), a solution that easily incorporates clustering as a self-supervision module to provide useful side information when rewards are not observed. Our experiments on a variety of datasets, both in stationary and nonstationary environments of six different scenarios, demonstrated clear advantages of the proposed approach over the standard contextual bandit. Lastly, we introduced a relevant real-life example where this problem setting is especially useful.</t>
+  </si>
+  <si>
+    <t>lin2020diabolical</t>
+  </si>
+  <si>
+    <t>Diabolical Games: Reinforcement Learning Environments for Lifelong Learning</t>
+  </si>
+  <si>
+    <t>Baihan</t>
+  </si>
+  <si>
+    <t>lin2020diabolical.png</t>
+  </si>
+  <si>
+    <t>lin2020diabolical.txt</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1395,16 +1425,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1425,25 +1455,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s">
-        <v>78</v>
-      </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1452,18 +1482,15 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" t="s">
         <v>222</v>
       </c>
-      <c r="X1" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1472,38 +1499,22 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="W2" t="s">
-        <v>224</v>
-      </c>
-      <c r="X2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1511,49 +1522,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
+        <v>324</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="W3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1561,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1570,35 +1572,38 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="X4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1606,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1614,42 +1619,36 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="X5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1657,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1665,38 +1664,42 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="X6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1704,34 +1707,46 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>322</v>
+        <v>47</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="V7" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="X7" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1739,58 +1754,34 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>2020</v>
+        <v>320</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>318</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="W8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1798,47 +1789,49 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="V9" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="W9" t="s">
+        <v>223</v>
+      </c>
+      <c r="X9" t="s">
         <v>224</v>
-      </c>
-      <c r="X9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1846,58 +1839,58 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="J10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="V10" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V10" t="s">
-        <v>79</v>
-      </c>
       <c r="W10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1905,46 +1898,44 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="X11" t="s">
         <v>232</v>
@@ -1955,46 +1946,58 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>74</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="V12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="X12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2002,43 +2005,46 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>249</v>
+        <v>82</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>251</v>
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="X13" t="s">
         <v>231</v>
@@ -2049,46 +2055,46 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C14">
         <v>2019</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="W14" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2096,52 +2102,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" t="s">
-        <v>116</v>
+        <v>249</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>250</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="V15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="W15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="X15" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2149,52 +2149,46 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" t="s">
-        <v>121</v>
-      </c>
-      <c r="R16" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="W16" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="X16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2202,58 +2196,52 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>130</v>
+        <v>110</v>
+      </c>
+      <c r="P17" t="s">
+        <v>115</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="V17" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="W17" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="X17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2261,58 +2249,52 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V18" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="W18" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="X18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2320,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2329,43 +2311,49 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" t="s">
-        <v>147</v>
-      </c>
-      <c r="R19" t="s">
-        <v>146</v>
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>129</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="V19" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="W19" t="s">
+        <v>238</v>
+      </c>
+      <c r="X19" t="s">
         <v>240</v>
-      </c>
-      <c r="X19" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2373,52 +2361,58 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>156</v>
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="s">
+        <v>137</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="W20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2426,52 +2420,52 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="R21" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="V21" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="W21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="X21" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2479,49 +2473,52 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="C22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G22">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>157</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="M22" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>173</v>
+        <v>155</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="V22" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="W22" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2529,49 +2526,52 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C23">
         <v>2017</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="M23" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>182</v>
+        <v>161</v>
+      </c>
+      <c r="P23" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" t="s">
+        <v>164</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="V23" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="W23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="X23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2579,49 +2579,49 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="Q24" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="V24" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
         <v>246</v>
-      </c>
-      <c r="X24" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2629,52 +2629,49 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C25">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P25" t="s">
-        <v>195</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>181</v>
       </c>
       <c r="V25" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2682,108 +2679,212 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26">
+        <v>2017</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V26" t="s">
+        <v>186</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>295</v>
       </c>
-      <c r="C26">
+      <c r="C27">
+        <v>2016</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P27" t="s">
+        <v>194</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V27" t="s">
+        <v>192</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28">
         <v>2015</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26">
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
         <v>201</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J28" t="s">
         <v>202</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>205</v>
+      </c>
+      <c r="V28" t="s">
         <v>203</v>
       </c>
-      <c r="K26" t="s">
-        <v>207</v>
-      </c>
-      <c r="M26" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>206</v>
-      </c>
-      <c r="V26" t="s">
-        <v>204</v>
-      </c>
-      <c r="W26" t="s">
-        <v>246</v>
-      </c>
-      <c r="X26" t="s">
-        <v>244</v>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
-    <hyperlink ref="U2" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
-    <hyperlink ref="U3" r:id="rId4" xr:uid="{170042EC-A224-6F46-A881-08386C71B708}"/>
-    <hyperlink ref="S3" r:id="rId5" xr:uid="{E7C855AD-35F0-1B4C-BFB3-CC2886FE9BCF}"/>
-    <hyperlink ref="L4" r:id="rId6" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
-    <hyperlink ref="S4" r:id="rId7" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
-    <hyperlink ref="L5" r:id="rId8" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
-    <hyperlink ref="S5" r:id="rId9" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
-    <hyperlink ref="L6" r:id="rId10" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
-    <hyperlink ref="S6" r:id="rId11" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
-    <hyperlink ref="L8" r:id="rId12" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
-    <hyperlink ref="S8" r:id="rId13" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
-    <hyperlink ref="L9" r:id="rId14" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
-    <hyperlink ref="S9" r:id="rId15" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
-    <hyperlink ref="T8" r:id="rId16" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
-    <hyperlink ref="T3" r:id="rId17" xr:uid="{ED695756-D322-4349-9801-579D08D8B248}"/>
-    <hyperlink ref="T10" r:id="rId18" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
-    <hyperlink ref="T6" r:id="rId19" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
-    <hyperlink ref="L10" r:id="rId20" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
-    <hyperlink ref="S10" r:id="rId21" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
-    <hyperlink ref="L11" r:id="rId22" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
-    <hyperlink ref="S11" r:id="rId23" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
-    <hyperlink ref="S12" r:id="rId24" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
-    <hyperlink ref="S13" r:id="rId25" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
-    <hyperlink ref="S14" r:id="rId26" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
-    <hyperlink ref="O14" r:id="rId27" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
-    <hyperlink ref="L15" r:id="rId28" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
-    <hyperlink ref="O15" r:id="rId29" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
-    <hyperlink ref="S15" r:id="rId30" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
-    <hyperlink ref="O16" r:id="rId31" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
-    <hyperlink ref="S16" r:id="rId32" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
-    <hyperlink ref="O17" r:id="rId33" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
-    <hyperlink ref="S17" r:id="rId34" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
-    <hyperlink ref="S18" r:id="rId35" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
-    <hyperlink ref="L18" r:id="rId36" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
-    <hyperlink ref="L19" r:id="rId37" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
-    <hyperlink ref="S19" r:id="rId38" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
-    <hyperlink ref="S20" r:id="rId39" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
-    <hyperlink ref="L20" r:id="rId40" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
-    <hyperlink ref="L21" r:id="rId41" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
-    <hyperlink ref="S21" r:id="rId42" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
-    <hyperlink ref="O25" r:id="rId43" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
-    <hyperlink ref="U25" r:id="rId44" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
-    <hyperlink ref="S25" r:id="rId45" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
-    <hyperlink ref="F18" r:id="rId46" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
-    <hyperlink ref="F8" r:id="rId47" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
-    <hyperlink ref="F10" r:id="rId48" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
-    <hyperlink ref="F5" r:id="rId49" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
-    <hyperlink ref="F22" r:id="rId50" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
-    <hyperlink ref="F26" r:id="rId51" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
-    <hyperlink ref="F23" r:id="rId52" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
-    <hyperlink ref="F24" r:id="rId53" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
-    <hyperlink ref="F20" r:id="rId54" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
-    <hyperlink ref="F17" r:id="rId55" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
+    <hyperlink ref="U4" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
+    <hyperlink ref="S5" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
+    <hyperlink ref="S6" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
+    <hyperlink ref="L7" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
+    <hyperlink ref="S7" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
+    <hyperlink ref="L10" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
+    <hyperlink ref="S10" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
+    <hyperlink ref="S11" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
+    <hyperlink ref="T10" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
+    <hyperlink ref="T12" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
+    <hyperlink ref="T7" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
+    <hyperlink ref="L12" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
+    <hyperlink ref="S12" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
+    <hyperlink ref="L13" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
+    <hyperlink ref="S13" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
+    <hyperlink ref="S14" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
+    <hyperlink ref="S15" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
+    <hyperlink ref="S16" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
+    <hyperlink ref="O16" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
+    <hyperlink ref="L17" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
+    <hyperlink ref="O17" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
+    <hyperlink ref="S17" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
+    <hyperlink ref="O18" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
+    <hyperlink ref="S18" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
+    <hyperlink ref="O19" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
+    <hyperlink ref="S19" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
+    <hyperlink ref="S20" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
+    <hyperlink ref="L20" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
+    <hyperlink ref="L21" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
+    <hyperlink ref="S21" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
+    <hyperlink ref="S22" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
+    <hyperlink ref="L22" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
+    <hyperlink ref="L23" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
+    <hyperlink ref="S23" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
+    <hyperlink ref="O27" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
+    <hyperlink ref="U27" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
+    <hyperlink ref="S27" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
+    <hyperlink ref="F20" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
+    <hyperlink ref="F10" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
+    <hyperlink ref="F12" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
+    <hyperlink ref="F6" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
+    <hyperlink ref="F24" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
+    <hyperlink ref="F28" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
+    <hyperlink ref="F25" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
+    <hyperlink ref="F26" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
+    <hyperlink ref="F22" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
+    <hyperlink ref="F19" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
+    <hyperlink ref="S3" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
+    <hyperlink ref="U9" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
+    <hyperlink ref="S9" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
+    <hyperlink ref="T9" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2806,25 +2907,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" t="s">
         <v>288</v>
-      </c>
-      <c r="B1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,19 +2933,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,19 +2953,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2875,16 +2976,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2892,19 +2993,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,13 +3016,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,13 +3033,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2949,13 +3050,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2966,16 +3067,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,13 +3087,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3003,13 +3104,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,13 +3121,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,16 +3138,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,16 +3158,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1E4F7-484F-4840-A184-04F3CA8B26EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0D87F-2376-DB40-A9B5-FD9ADEED6A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="335">
   <si>
     <t>title</t>
   </si>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,6 +1515,9 @@
       </c>
       <c r="W2" t="s">
         <v>223</v>
+      </c>
+      <c r="X2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C0D87F-2376-DB40-A9B5-FD9ADEED6A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C8B996-2994-EB48-A8FF-B96A4ACA4BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="332">
   <si>
     <t>title</t>
   </si>
@@ -1026,19 +1026,10 @@
     <t>We considered a novel practical problem of online learning with episodically revealed rewards, motivated by several real-world applications, where the contexts are nonstationary over different episodes and the reward feedbacks are not always available to the decision making agents. For this online semi-supervised learning setting, we introduced Background Episodic Reward LinUCB (BerlinUCB), a solution that easily incorporates clustering as a self-supervision module to provide useful side information when rewards are not observed. Our experiments on a variety of datasets, both in stationary and nonstationary environments of six different scenarios, demonstrated clear advantages of the proposed approach over the standard contextual bandit. Lastly, we introduced a relevant real-life example where this problem setting is especially useful.</t>
   </si>
   <si>
-    <t>lin2020diabolical</t>
-  </si>
-  <si>
-    <t>Diabolical Games: Reinforcement Learning Environments for Lifelong Learning</t>
-  </si>
-  <si>
-    <t>Baihan</t>
-  </si>
-  <si>
-    <t>lin2020diabolical.png</t>
-  </si>
-  <si>
-    <t>lin2020diabolical.txt</t>
+    <t>https://youtu.be/e8IT1S0HXfY?t=3356</t>
+  </si>
+  <si>
+    <t>interview</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,8 +1480,11 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1499,19 +1493,25 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M2" t="s">
-        <v>334</v>
+        <v>327</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" t="s">
+        <v>329</v>
       </c>
       <c r="W2" t="s">
         <v>223</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1534,31 +1534,38 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>326</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>328</v>
+        <v>18</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="V3" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
         <v>223</v>
       </c>
       <c r="X3" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1566,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1575,38 +1582,35 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="X4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1622,36 +1626,42 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="X5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1659,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1667,42 +1677,38 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="X6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1710,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1719,37 +1725,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>318</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="W7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="X7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1757,34 +1751,49 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>297</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>321</v>
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="V8" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="W8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="X8" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1792,49 +1801,64 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>331</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R9" t="s">
+        <v>97</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="X9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1842,58 +1866,47 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="W10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="X10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1901,47 +1914,58 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="R11" t="s">
+        <v>74</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="X11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1949,52 +1973,43 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
         <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W12" t="s">
         <v>227</v>
@@ -2008,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2020,37 +2035,34 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="X13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2058,46 +2070,46 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" t="s">
-        <v>89</v>
+        <v>249</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>250</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="W14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2105,46 +2117,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>250</v>
+        <v>103</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="W15" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="X15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2152,46 +2164,52 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="P16" t="s">
+        <v>115</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="V16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="W16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2199,52 +2217,52 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="R17" t="s">
+        <v>121</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="W17" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="X17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2252,52 +2270,58 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>129</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="V18" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="W18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X18" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2305,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2314,49 +2338,49 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="M19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>129</v>
+        <v>139</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="s">
+        <v>137</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W19" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="X19" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2364,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2375,47 +2399,41 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="R20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="W20" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="X20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2423,52 +2441,52 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s">
-        <v>147</v>
-      </c>
-      <c r="P21" t="s">
-        <v>146</v>
-      </c>
-      <c r="R21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="V21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="W21" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="X21" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2476,52 +2494,52 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C22">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="P22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" t="s">
+        <v>164</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="V22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2529,52 +2547,49 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="C23">
         <v>2017</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23">
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P23" t="s">
-        <v>166</v>
-      </c>
-      <c r="R23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>172</v>
       </c>
       <c r="V23" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="X23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2582,49 +2597,49 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G24">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="V24" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="W24" t="s">
         <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2632,49 +2647,49 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="V25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="W25" t="s">
         <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2682,49 +2697,52 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C26">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>187</v>
+        <v>196</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" t="s">
+        <v>194</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="V26" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2732,162 +2750,110 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s">
-        <v>196</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>205</v>
       </c>
       <c r="V27" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="W27" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28">
-        <v>2015</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G28">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" t="s">
-        <v>201</v>
-      </c>
-      <c r="J28" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="M28" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>205</v>
-      </c>
-      <c r="V28" t="s">
-        <v>203</v>
-      </c>
-      <c r="W28" t="s">
-        <v>245</v>
-      </c>
-      <c r="X28" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
-    <hyperlink ref="S4" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
-    <hyperlink ref="U4" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
-    <hyperlink ref="S5" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
-    <hyperlink ref="L6" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
-    <hyperlink ref="S6" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
-    <hyperlink ref="L7" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
-    <hyperlink ref="S7" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
-    <hyperlink ref="L10" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
-    <hyperlink ref="S10" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
-    <hyperlink ref="L11" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
-    <hyperlink ref="S11" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
-    <hyperlink ref="T10" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
-    <hyperlink ref="T12" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
-    <hyperlink ref="T7" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
-    <hyperlink ref="L12" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
-    <hyperlink ref="S12" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
-    <hyperlink ref="L13" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
-    <hyperlink ref="S13" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
-    <hyperlink ref="S14" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
-    <hyperlink ref="S15" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
-    <hyperlink ref="S16" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
-    <hyperlink ref="O16" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
-    <hyperlink ref="L17" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
-    <hyperlink ref="O17" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
-    <hyperlink ref="S17" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
-    <hyperlink ref="O18" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
-    <hyperlink ref="S18" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
-    <hyperlink ref="O19" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
-    <hyperlink ref="S19" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
-    <hyperlink ref="S20" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
-    <hyperlink ref="L20" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
-    <hyperlink ref="L21" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
-    <hyperlink ref="S21" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
-    <hyperlink ref="S22" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
-    <hyperlink ref="L22" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
-    <hyperlink ref="L23" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
-    <hyperlink ref="S23" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
-    <hyperlink ref="O27" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
-    <hyperlink ref="U27" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
-    <hyperlink ref="S27" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
-    <hyperlink ref="F20" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
-    <hyperlink ref="F10" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
-    <hyperlink ref="F12" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
-    <hyperlink ref="F6" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
-    <hyperlink ref="F24" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
-    <hyperlink ref="F28" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
-    <hyperlink ref="F25" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
-    <hyperlink ref="F26" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
-    <hyperlink ref="F22" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
-    <hyperlink ref="F19" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
-    <hyperlink ref="S3" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
-    <hyperlink ref="U9" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
-    <hyperlink ref="S9" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
-    <hyperlink ref="T9" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
+    <hyperlink ref="U3" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
+    <hyperlink ref="S4" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
+    <hyperlink ref="L5" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
+    <hyperlink ref="S5" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
+    <hyperlink ref="S6" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
+    <hyperlink ref="L9" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
+    <hyperlink ref="S9" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
+    <hyperlink ref="L10" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
+    <hyperlink ref="S10" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
+    <hyperlink ref="T9" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
+    <hyperlink ref="T11" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
+    <hyperlink ref="T6" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
+    <hyperlink ref="S11" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
+    <hyperlink ref="S12" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
+    <hyperlink ref="S13" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
+    <hyperlink ref="S14" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
+    <hyperlink ref="S15" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
+    <hyperlink ref="O15" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
+    <hyperlink ref="L16" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
+    <hyperlink ref="O16" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
+    <hyperlink ref="S16" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
+    <hyperlink ref="O17" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
+    <hyperlink ref="S17" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
+    <hyperlink ref="O18" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
+    <hyperlink ref="S18" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
+    <hyperlink ref="S19" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
+    <hyperlink ref="L19" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
+    <hyperlink ref="L20" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
+    <hyperlink ref="S20" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
+    <hyperlink ref="S21" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
+    <hyperlink ref="L21" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
+    <hyperlink ref="L22" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
+    <hyperlink ref="S22" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
+    <hyperlink ref="O26" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
+    <hyperlink ref="U26" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
+    <hyperlink ref="S26" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
+    <hyperlink ref="F19" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
+    <hyperlink ref="F9" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
+    <hyperlink ref="F11" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
+    <hyperlink ref="F5" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
+    <hyperlink ref="F23" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
+    <hyperlink ref="F27" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
+    <hyperlink ref="F24" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
+    <hyperlink ref="F25" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
+    <hyperlink ref="F21" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
+    <hyperlink ref="F18" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
+    <hyperlink ref="S2" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
+    <hyperlink ref="U8" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
+    <hyperlink ref="S8" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
+    <hyperlink ref="T8" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
+    <hyperlink ref="O9" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C8B996-2994-EB48-A8FF-B96A4ACA4BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9352FEE-8E2F-914F-80B9-78EA2309789A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1026,10 +1026,10 @@
     <t>We considered a novel practical problem of online learning with episodically revealed rewards, motivated by several real-world applications, where the contexts are nonstationary over different episodes and the reward feedbacks are not always available to the decision making agents. For this online semi-supervised learning setting, we introduced Background Episodic Reward LinUCB (BerlinUCB), a solution that easily incorporates clustering as a self-supervision module to provide useful side information when rewards are not observed. Our experiments on a variety of datasets, both in stationary and nonstationary environments of six different scenarios, demonstrated clear advantages of the proposed approach over the standard contextual bandit. Lastly, we introduced a relevant real-life example where this problem setting is especially useful.</t>
   </si>
   <si>
-    <t>https://youtu.be/e8IT1S0HXfY?t=3356</t>
-  </si>
-  <si>
     <t>interview</t>
+  </si>
+  <si>
+    <t>https://youtu.be/e8IT1S0HXfY?t=3380</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1630,7 @@
         <v>213</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -1837,10 +1837,10 @@
         <v>54</v>
       </c>
       <c r="N9" t="s">
+        <v>330</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="R9" t="s">
         <v>97</v>
@@ -1929,7 +1929,7 @@
         <v>212</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>69</v>
@@ -2285,7 +2285,7 @@
         <v>219</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
         <v>123</v>
@@ -2344,7 +2344,7 @@
         <v>210</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>133</v>
@@ -2456,7 +2456,7 @@
         <v>218</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>150</v>
@@ -2562,7 +2562,7 @@
         <v>214</v>
       </c>
       <c r="G23">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
         <v>167</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9352FEE-8E2F-914F-80B9-78EA2309789A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A3C66-0F7D-2E4D-A663-B1F87D210C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="9160" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2662,7 +2662,7 @@
         <v>217</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
         <v>183</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A3C66-0F7D-2E4D-A663-B1F87D210C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE0184-B6DF-2D41-A752-2F0F4C78202B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="6780" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2765,7 +2765,7 @@
         <v>215</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
         <v>200</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE0184-B6DF-2D41-A752-2F0F4C78202B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312F7CE-2093-9F49-972A-309F8C4BB5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="10080" yWindow="2900" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="333">
   <si>
     <t>title</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Prisoner's Dilemma mainly treat the choice to cooperate or defect as an atomic action. We propose to study online learning algorithm behavior in the Iterated Prisoner's Dilemma (IPD) game, where we explored the full spectrum of reinforcement learning agents: multi-armed bandits, contextual bandits and reinforcement learning. We have evaluate them based on a tournament of iterated prisoner's dilemma where multiple agents can compete in a sequential fashion. This allows us to analyze the dynamics of policies learned by multiple self-interested independent reward-driven agents, and also allows us study the capacity of these algorithms to fit the human behaviors. Results suggest that considering the current situation to make decision is the worst in this kind of social dilemma game. Multiples discoveries on online learning behaviors and clinical validations are stated.</t>
   </si>
   <si>
-    <t xml:space="preserve">Constraining Implicit Space with MDL: Regularity Normalization as Unsupervised Attention </t>
-  </si>
-  <si>
     <t>Baihan Lin</t>
   </si>
   <si>
@@ -1030,6 +1027,12 @@
   </si>
   <si>
     <t>https://youtu.be/e8IT1S0HXfY?t=3380</t>
+  </si>
+  <si>
+    <t>Constraining Implicit Space with Minimum Description Length: An Unsupervised Attention Mechanism across Neural Network Layers</t>
+  </si>
+  <si>
+    <t>AJCAI 2020</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,16 +1419,16 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1446,25 +1449,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1473,10 +1476,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>220</v>
+      </c>
+      <c r="X1" t="s">
         <v>221</v>
-      </c>
-      <c r="X1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1484,40 +1487,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>324</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" t="s">
         <v>325</v>
       </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>326</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" t="s">
         <v>328</v>
       </c>
-      <c r="V2" t="s">
-        <v>329</v>
-      </c>
       <c r="W2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1525,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1562,10 +1565,10 @@
         <v>20</v>
       </c>
       <c r="W3" t="s">
+        <v>222</v>
+      </c>
+      <c r="X3" t="s">
         <v>223</v>
-      </c>
-      <c r="X3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1573,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1607,10 +1610,10 @@
         <v>35</v>
       </c>
       <c r="W4" t="s">
+        <v>224</v>
+      </c>
+      <c r="X4" t="s">
         <v>225</v>
-      </c>
-      <c r="X4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1618,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1627,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -1658,10 +1661,10 @@
         <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1669,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1678,37 +1681,37 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="S6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1716,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1725,25 +1728,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7" t="s">
         <v>317</v>
-      </c>
-      <c r="I7" t="s">
-        <v>318</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1751,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1781,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>19</v>
@@ -1790,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="W8" t="s">
+        <v>222</v>
+      </c>
+      <c r="X8" t="s">
         <v>223</v>
-      </c>
-      <c r="X8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1801,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1813,52 +1816,52 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>329</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N9" t="s">
-        <v>330</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="R9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V9" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
       <c r="W9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1866,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1878,35 +1881,35 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
         <v>60</v>
       </c>
-      <c r="M10" t="s">
+      <c r="S10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="T10" s="1"/>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1914,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1926,46 +1929,46 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" t="s">
         <v>71</v>
       </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1973,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1982,40 +1985,40 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>83</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" t="s">
-        <v>85</v>
-      </c>
       <c r="W12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2023,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2032,37 +2035,37 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
         <v>86</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>87</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s">
         <v>88</v>
       </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="S13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="V13" t="s">
         <v>92</v>
       </c>
-      <c r="V13" t="s">
-        <v>93</v>
-      </c>
       <c r="W13" t="s">
+        <v>232</v>
+      </c>
+      <c r="X13" t="s">
         <v>233</v>
-      </c>
-      <c r="X13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2070,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -2079,37 +2082,37 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
       <c r="J14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" t="s">
         <v>248</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="Q14" t="s">
-        <v>250</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2126,37 +2129,37 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" t="s">
         <v>101</v>
       </c>
-      <c r="K15" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>102</v>
-      </c>
       <c r="W15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2164,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2176,40 +2179,40 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
         <v>106</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>107</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="S16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="V16" t="s">
         <v>112</v>
       </c>
-      <c r="V16" t="s">
-        <v>113</v>
-      </c>
       <c r="W16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2217,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2226,43 +2229,43 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>120</v>
       </c>
-      <c r="R17" t="s">
-        <v>121</v>
-      </c>
       <c r="S17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" t="s">
         <v>92</v>
       </c>
-      <c r="V17" t="s">
-        <v>93</v>
-      </c>
       <c r="W17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2270,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2279,49 +2282,49 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
         <v>123</v>
       </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>124</v>
-      </c>
       <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N18" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>129</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="V18" t="s">
         <v>131</v>
       </c>
-      <c r="V18" t="s">
-        <v>132</v>
-      </c>
       <c r="W18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2329,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2341,46 +2344,46 @@
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
       <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
         <v>135</v>
       </c>
-      <c r="K19" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" t="s">
-        <v>138</v>
-      </c>
-      <c r="R19" t="s">
-        <v>137</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" t="s">
-        <v>136</v>
-      </c>
       <c r="W19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2388,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2400,40 +2403,40 @@
         <v>22</v>
       </c>
       <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
         <v>142</v>
       </c>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" t="s">
+        <v>145</v>
+      </c>
+      <c r="R20" t="s">
         <v>144</v>
       </c>
-      <c r="M20" t="s">
+      <c r="S20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
         <v>147</v>
       </c>
-      <c r="P20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R20" t="s">
-        <v>145</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V20" t="s">
-        <v>148</v>
-      </c>
       <c r="W20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2441,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21">
         <v>2018</v>
@@ -2453,40 +2456,40 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
       <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" t="s">
         <v>150</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>151</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" t="s">
+        <v>154</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V21" t="s">
         <v>152</v>
       </c>
-      <c r="K21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M21" t="s">
-        <v>155</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V21" t="s">
-        <v>153</v>
-      </c>
       <c r="W21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2494,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2503,43 +2506,43 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" t="s">
         <v>158</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V22" t="s">
         <v>159</v>
       </c>
-      <c r="J22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M22" t="s">
-        <v>161</v>
-      </c>
-      <c r="P22" t="s">
-        <v>166</v>
-      </c>
-      <c r="R22" t="s">
-        <v>164</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V22" t="s">
-        <v>160</v>
-      </c>
       <c r="W22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X22" t="s">
         <v>242</v>
-      </c>
-      <c r="X22" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2547,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2556,40 +2559,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G23">
         <v>74</v>
       </c>
       <c r="H23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
         <v>167</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" t="s">
         <v>171</v>
       </c>
-      <c r="J23" t="s">
-        <v>168</v>
-      </c>
-      <c r="K23" t="s">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>172</v>
-      </c>
       <c r="V23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W23" t="s">
+        <v>244</v>
+      </c>
+      <c r="X23" t="s">
         <v>245</v>
-      </c>
-      <c r="X23" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2597,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2606,40 +2609,40 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24">
         <v>15</v>
       </c>
       <c r="H24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
         <v>176</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>180</v>
+      </c>
+      <c r="V24" t="s">
         <v>178</v>
       </c>
-      <c r="J24" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>180</v>
-      </c>
-      <c r="M24" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>181</v>
-      </c>
-      <c r="V24" t="s">
-        <v>179</v>
-      </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2647,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C25">
         <v>2017</v>
@@ -2656,40 +2659,40 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" t="s">
         <v>183</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>184</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>186</v>
+      </c>
+      <c r="V25" t="s">
         <v>185</v>
       </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="M25" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>187</v>
-      </c>
-      <c r="V25" t="s">
-        <v>186</v>
-      </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2697,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -2706,43 +2709,43 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" t="s">
         <v>190</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" t="s">
+        <v>193</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V26" t="s">
         <v>191</v>
       </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M26" t="s">
-        <v>196</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P26" t="s">
-        <v>194</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="V26" t="s">
-        <v>192</v>
-      </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2750,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27">
         <v>2015</v>
@@ -2759,40 +2762,40 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27">
         <v>28</v>
       </c>
       <c r="H27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" t="s">
         <v>200</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>201</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>204</v>
+      </c>
+      <c r="V27" t="s">
         <v>202</v>
       </c>
-      <c r="K27" t="s">
-        <v>206</v>
-      </c>
-      <c r="M27" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>205</v>
-      </c>
-      <c r="V27" t="s">
-        <v>203</v>
-      </c>
       <c r="W27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2876,25 +2879,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2902,19 +2905,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,19 +2925,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2945,16 +2948,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2962,19 +2965,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2985,13 +2988,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3002,13 +3005,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3019,13 +3022,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3036,16 +3039,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3056,13 +3059,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3073,13 +3076,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3090,13 +3093,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3107,16 +3110,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3127,16 +3130,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312F7CE-2093-9F49-972A-309F8C4BB5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6042B07-629A-834E-930D-AA3590D33AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="2900" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="334">
   <si>
     <t>title</t>
   </si>
@@ -1033,6 +1033,9 @@
   </si>
   <si>
     <t>AJCAI 2020</t>
+  </si>
+  <si>
+    <t>https://hal.archives-ouvertes.fr/hal-02939812/document</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1401,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1776,6 +1779,9 @@
       </c>
       <c r="K8" t="s">
         <v>25</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -2857,6 +2863,7 @@
     <hyperlink ref="S8" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
     <hyperlink ref="T8" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
     <hyperlink ref="O9" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
+    <hyperlink ref="L8" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6042B07-629A-834E-930D-AA3590D33AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304AEB-9A89-C041-83A4-BBCEEBA8395E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,6 +1491,9 @@
       </c>
       <c r="B2" t="s">
         <v>323</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
       </c>
       <c r="D2">
         <v>11</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304AEB-9A89-C041-83A4-BBCEEBA8395E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9DDE1-5F93-7045-B061-6597328CFF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>InterSpeech 2020</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1036,6 +1033,9 @@
   </si>
   <si>
     <t>https://hal.archives-ouvertes.fr/hal-02939812/document</t>
+  </si>
+  <si>
+    <t>INTERSPEECH 2020</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,25 +1413,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="P1" t="s">
-        <v>76</v>
-      </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1479,10 +1479,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" t="s">
         <v>220</v>
-      </c>
-      <c r="X1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1502,31 +1502,31 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" t="s">
         <v>324</v>
       </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>325</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" t="s">
         <v>327</v>
       </c>
-      <c r="V2" t="s">
-        <v>328</v>
-      </c>
       <c r="W2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>20</v>
       </c>
       <c r="W3" t="s">
+        <v>221</v>
+      </c>
+      <c r="X3" t="s">
         <v>222</v>
-      </c>
-      <c r="X3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1591,35 +1591,35 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="T4" s="1"/>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
+        <v>223</v>
+      </c>
+      <c r="X4" t="s">
         <v>224</v>
-      </c>
-      <c r="X4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1636,41 +1636,41 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1687,37 +1687,37 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="S6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" t="s">
         <v>316</v>
-      </c>
-      <c r="I7" t="s">
-        <v>317</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1778,34 +1778,34 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" t="s">
         <v>25</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W8" t="s">
+        <v>221</v>
+      </c>
+      <c r="X8" t="s">
         <v>222</v>
-      </c>
-      <c r="X8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1825,52 +1825,52 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" t="s">
         <v>52</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
-        <v>329</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="V9" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
       <c r="W9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1890,35 +1890,35 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" t="s">
+      <c r="S10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T10" s="1"/>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1938,46 +1938,46 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
         <v>68</v>
       </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" t="s">
         <v>70</v>
       </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -1994,40 +1994,40 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="H12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
         <v>81</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>82</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V12" t="s">
-        <v>84</v>
-      </c>
       <c r="W12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2044,37 +2044,37 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
         <v>85</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="S13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P13" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="V13" t="s">
         <v>91</v>
       </c>
-      <c r="V13" t="s">
-        <v>92</v>
-      </c>
       <c r="W13" t="s">
+        <v>231</v>
+      </c>
+      <c r="X13" t="s">
         <v>232</v>
-      </c>
-      <c r="X13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -2091,37 +2091,37 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K14" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" t="s">
         <v>247</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>248</v>
       </c>
-      <c r="Q14" t="s">
-        <v>249</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2138,37 +2138,37 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
         <v>99</v>
       </c>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" t="s">
         <v>100</v>
       </c>
-      <c r="K15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V15" t="s">
-        <v>101</v>
-      </c>
       <c r="W15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2188,40 +2188,40 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
         <v>105</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="S16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="V16" t="s">
         <v>111</v>
       </c>
-      <c r="V16" t="s">
-        <v>112</v>
-      </c>
       <c r="W16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2238,43 +2238,43 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>119</v>
       </c>
-      <c r="R17" t="s">
-        <v>120</v>
-      </c>
       <c r="S17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" t="s">
         <v>91</v>
       </c>
-      <c r="V17" t="s">
-        <v>92</v>
-      </c>
       <c r="W17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2291,49 +2291,49 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
         <v>122</v>
       </c>
-      <c r="I18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
       <c r="K18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
+        <v>127</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>128</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="V18" t="s">
         <v>130</v>
       </c>
-      <c r="V18" t="s">
-        <v>131</v>
-      </c>
       <c r="W18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2353,46 +2353,46 @@
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" t="s">
         <v>134</v>
       </c>
-      <c r="K19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" t="s">
-        <v>138</v>
-      </c>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" t="s">
-        <v>136</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V19" t="s">
-        <v>135</v>
-      </c>
       <c r="W19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2412,40 +2412,40 @@
         <v>22</v>
       </c>
       <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
         <v>141</v>
       </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" t="s">
+        <v>144</v>
+      </c>
+      <c r="R20" t="s">
         <v>143</v>
       </c>
-      <c r="M20" t="s">
+      <c r="S20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" t="s">
         <v>146</v>
       </c>
-      <c r="P20" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" t="s">
-        <v>144</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>147</v>
-      </c>
       <c r="W20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21">
         <v>2018</v>
@@ -2465,40 +2465,40 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21">
         <v>18</v>
       </c>
       <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
         <v>149</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>150</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V21" t="s">
         <v>151</v>
       </c>
-      <c r="K21" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M21" t="s">
-        <v>154</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="V21" t="s">
-        <v>152</v>
-      </c>
       <c r="W21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2515,43 +2515,43 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" t="s">
         <v>157</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" t="s">
+        <v>162</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V22" t="s">
         <v>158</v>
       </c>
-      <c r="J22" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M22" t="s">
-        <v>160</v>
-      </c>
-      <c r="P22" t="s">
-        <v>165</v>
-      </c>
-      <c r="R22" t="s">
-        <v>163</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="V22" t="s">
-        <v>159</v>
-      </c>
       <c r="W22" t="s">
+        <v>240</v>
+      </c>
+      <c r="X22" t="s">
         <v>241</v>
-      </c>
-      <c r="X22" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2568,40 +2568,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G23">
         <v>74</v>
       </c>
       <c r="H23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
         <v>166</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" t="s">
         <v>170</v>
       </c>
-      <c r="J23" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" t="s">
-        <v>174</v>
-      </c>
-      <c r="M23" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>171</v>
-      </c>
       <c r="V23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W23" t="s">
+        <v>243</v>
+      </c>
+      <c r="X23" t="s">
         <v>244</v>
-      </c>
-      <c r="X23" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2618,40 +2618,40 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24">
         <v>15</v>
       </c>
       <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
         <v>175</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" t="s">
         <v>177</v>
       </c>
-      <c r="J24" t="s">
-        <v>176</v>
-      </c>
-      <c r="K24" t="s">
-        <v>179</v>
-      </c>
-      <c r="M24" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>180</v>
-      </c>
-      <c r="V24" t="s">
-        <v>178</v>
-      </c>
       <c r="W24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25">
         <v>2017</v>
@@ -2668,40 +2668,40 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s">
         <v>182</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>183</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>185</v>
+      </c>
+      <c r="V25" t="s">
         <v>184</v>
       </c>
-      <c r="K25" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>186</v>
-      </c>
-      <c r="V25" t="s">
-        <v>185</v>
-      </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -2718,43 +2718,43 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" t="s">
         <v>189</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" t="s">
+        <v>192</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V26" t="s">
         <v>190</v>
       </c>
-      <c r="J26" t="s">
-        <v>192</v>
-      </c>
-      <c r="K26" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" t="s">
-        <v>195</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P26" t="s">
-        <v>193</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V26" t="s">
-        <v>191</v>
-      </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27">
         <v>2015</v>
@@ -2771,40 +2771,40 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27">
         <v>28</v>
       </c>
       <c r="H27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I27" t="s">
         <v>199</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>200</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>203</v>
+      </c>
+      <c r="V27" t="s">
         <v>201</v>
       </c>
-      <c r="K27" t="s">
-        <v>205</v>
-      </c>
-      <c r="M27" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>204</v>
-      </c>
-      <c r="V27" t="s">
-        <v>202</v>
-      </c>
       <c r="W27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2889,25 +2889,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2915,19 +2915,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2935,19 +2935,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2958,16 +2958,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2975,19 +2975,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2998,13 +2998,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3015,13 +3015,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3032,13 +3032,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3049,16 +3049,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3069,13 +3069,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3086,13 +3086,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3103,13 +3103,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,16 +3120,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3140,16 +3140,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9DDE1-5F93-7045-B061-6597328CFF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96EBE47-B18E-D946-ACB8-4FD7A699376C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>209</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96EBE47-B18E-D946-ACB8-4FD7A699376C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFCA031-4B47-C34D-BACD-38CFD53BDDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="335">
   <si>
     <t>title</t>
   </si>
@@ -1036,6 +1036,9 @@
   </si>
   <si>
     <t>INTERSPEECH 2020</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2009.08457</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1404,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,6 +1515,9 @@
       </c>
       <c r="K2" t="s">
         <v>324</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="M2" t="s">
         <v>325</v>
@@ -2867,6 +2873,7 @@
     <hyperlink ref="T8" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
     <hyperlink ref="O9" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
     <hyperlink ref="L8" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
+    <hyperlink ref="L2" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFCA031-4B47-C34D-BACD-38CFD53BDDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911CF84-CC34-184D-8BAE-2D1564EAC32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -534,9 +534,6 @@
     <t>Dynamic Forecasting of Zika Epidemics Using Google Trends</t>
   </si>
   <si>
-    <t xml:space="preserve">PLoS One </t>
-  </si>
-  <si>
     <t xml:space="preserve">RECOMB/ISCB 2017 Conference on Regulatory &amp; Systems Genomics </t>
   </si>
   <si>
@@ -1039,6 +1036,9 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2009.08457</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,16 +1425,16 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X1" t="s">
         <v>219</v>
-      </c>
-      <c r="X1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1505,34 +1505,34 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="S2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" t="s">
         <v>326</v>
       </c>
-      <c r="V2" t="s">
-        <v>327</v>
-      </c>
       <c r="W2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="W3" t="s">
+        <v>220</v>
+      </c>
+      <c r="X3" t="s">
         <v>221</v>
-      </c>
-      <c r="X3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>34</v>
       </c>
       <c r="W4" t="s">
+        <v>222</v>
+      </c>
+      <c r="X4" t="s">
         <v>223</v>
-      </c>
-      <c r="X4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -1673,10 +1673,10 @@
         <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -1720,10 +1720,10 @@
         <v>43</v>
       </c>
       <c r="W6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1740,25 +1740,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" t="s">
         <v>315</v>
-      </c>
-      <c r="I7" t="s">
-        <v>316</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -1784,13 +1784,13 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
@@ -1799,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>19</v>
@@ -1808,10 +1808,10 @@
         <v>26</v>
       </c>
       <c r="W8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X8" t="s">
         <v>221</v>
-      </c>
-      <c r="X8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1831,7 +1831,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1855,10 +1855,10 @@
         <v>52</v>
       </c>
       <c r="N9" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="R9" t="s">
         <v>95</v>
@@ -1867,16 +1867,16 @@
         <v>53</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V9" t="s">
         <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1921,10 +1921,10 @@
         <v>62</v>
       </c>
       <c r="W10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1944,7 +1944,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1980,10 +1980,10 @@
         <v>76</v>
       </c>
       <c r="W11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12">
         <v>2019</v>
@@ -2030,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="W12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2077,10 +2077,10 @@
         <v>91</v>
       </c>
       <c r="W13" t="s">
+        <v>230</v>
+      </c>
+      <c r="X13" t="s">
         <v>231</v>
-      </c>
-      <c r="X13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -2106,16 +2106,16 @@
         <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" t="s">
         <v>246</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>247</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>248</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>97</v>
@@ -2124,10 +2124,10 @@
         <v>96</v>
       </c>
       <c r="W14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15">
         <v>2019</v>
@@ -2171,10 +2171,10 @@
         <v>100</v>
       </c>
       <c r="W15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2224,10 +2224,10 @@
         <v>111</v>
       </c>
       <c r="W16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2277,10 +2277,10 @@
         <v>91</v>
       </c>
       <c r="W17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2300,7 +2300,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18">
         <v>9</v>
@@ -2336,10 +2336,10 @@
         <v>130</v>
       </c>
       <c r="W18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2359,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2395,10 +2395,10 @@
         <v>134</v>
       </c>
       <c r="W19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2448,10 +2448,10 @@
         <v>146</v>
       </c>
       <c r="W20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21">
         <v>2018</v>
@@ -2471,7 +2471,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G21">
         <v>18</v>
@@ -2501,10 +2501,10 @@
         <v>151</v>
       </c>
       <c r="W21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -2530,7 +2530,7 @@
         <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
         <v>160</v>
@@ -2554,10 +2554,10 @@
         <v>158</v>
       </c>
       <c r="W22" t="s">
+        <v>239</v>
+      </c>
+      <c r="X22" t="s">
         <v>240</v>
-      </c>
-      <c r="X22" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2577,7 +2577,7 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G23">
         <v>74</v>
@@ -2586,28 +2586,28 @@
         <v>165</v>
       </c>
       <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" t="s">
         <v>169</v>
       </c>
-      <c r="J23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>170</v>
-      </c>
       <c r="V23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W23" t="s">
+        <v>242</v>
+      </c>
+      <c r="X23" t="s">
         <v>243</v>
-      </c>
-      <c r="X23" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2627,37 +2627,37 @@
         <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G24">
         <v>15</v>
       </c>
       <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
         <v>174</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>178</v>
+      </c>
+      <c r="V24" t="s">
         <v>176</v>
       </c>
-      <c r="J24" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="M24" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>179</v>
-      </c>
-      <c r="V24" t="s">
-        <v>177</v>
-      </c>
       <c r="W24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25">
         <v>2017</v>
@@ -2677,37 +2677,37 @@
         <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" t="s">
         <v>181</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>182</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>184</v>
+      </c>
+      <c r="V25" t="s">
         <v>183</v>
       </c>
-      <c r="K25" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>185</v>
-      </c>
-      <c r="V25" t="s">
-        <v>184</v>
-      </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -2727,40 +2727,40 @@
         <v>79</v>
       </c>
       <c r="H26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" t="s">
         <v>188</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" t="s">
+        <v>191</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V26" t="s">
         <v>189</v>
       </c>
-      <c r="J26" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" t="s">
-        <v>194</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="P26" t="s">
-        <v>192</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="V26" t="s">
-        <v>190</v>
-      </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27">
         <v>2015</v>
@@ -2780,37 +2780,37 @@
         <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G27">
         <v>28</v>
       </c>
       <c r="H27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" t="s">
         <v>198</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>199</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>202</v>
+      </c>
+      <c r="V27" t="s">
         <v>200</v>
       </c>
-      <c r="K27" t="s">
-        <v>204</v>
-      </c>
-      <c r="M27" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>203</v>
-      </c>
-      <c r="V27" t="s">
-        <v>201</v>
-      </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2896,25 +2896,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,19 +2922,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,19 +2942,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2965,16 +2965,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2982,19 +2982,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,13 +3005,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3022,13 +3022,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3039,13 +3039,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3056,16 +3056,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,13 +3076,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3093,13 +3093,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3110,13 +3110,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3127,16 +3127,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3147,16 +3147,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911CF84-CC34-184D-8BAE-2D1564EAC32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68340CB-B7CC-0E4A-A4FA-B6C8FBF97CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="338">
   <si>
     <t>title</t>
   </si>
@@ -1039,6 +1039,15 @@
   </si>
   <si>
     <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=7368683227693107655</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=17042737051045836852</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=652131822995068130</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1504,6 +1513,12 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2" t="s">
         <v>322</v>
       </c>
@@ -1548,6 +1563,12 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1666,7 @@
         <v>210</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1777,6 +1798,12 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1861,7 @@
         <v>208</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -1947,7 +1974,7 @@
         <v>209</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2362,7 +2389,7 @@
         <v>207</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>131</v>
@@ -2474,7 +2501,7 @@
         <v>215</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
         <v>148</v>
@@ -2580,7 +2607,7 @@
         <v>211</v>
       </c>
       <c r="G23">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
         <v>165</v>
@@ -2874,6 +2901,9 @@
     <hyperlink ref="O9" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
     <hyperlink ref="L8" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
     <hyperlink ref="L2" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
+    <hyperlink ref="F2" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
+    <hyperlink ref="F3" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
+    <hyperlink ref="F8" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68340CB-B7CC-0E4A-A4FA-B6C8FBF97CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA92A5E-4201-DC4D-82E0-C1DD42768FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="339">
   <si>
     <t>title</t>
   </si>
@@ -1048,6 +1048,9 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=652131822995068130</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=4167011196447633661</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,7 +1520,7 @@
         <v>335</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>322</v>
@@ -1666,7 +1669,7 @@
         <v>210</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1974,7 +1977,7 @@
         <v>209</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2389,7 +2392,7 @@
         <v>207</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>131</v>
@@ -2444,6 +2447,12 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="H20" t="s">
         <v>140</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>215</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
         <v>148</v>
@@ -2607,7 +2616,7 @@
         <v>211</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
         <v>165</v>
@@ -2904,6 +2913,7 @@
     <hyperlink ref="F2" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
     <hyperlink ref="F3" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
     <hyperlink ref="F8" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
+    <hyperlink ref="F20" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA92A5E-4201-DC4D-82E0-C1DD42768FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F5A50-F213-B844-9CA7-A4C555DCF623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="345">
   <si>
     <t>title</t>
   </si>
@@ -96,9 +96,6 @@
     <t>https://www.baihan.nyc/viz/VoiceID/</t>
   </si>
   <si>
-    <t>We proposed a novel AI framework to conduct real-time multi-speaker diarization and recognition without prior registration and pretraining in a fully online learning setting. Our contributions are two-fold. First, we proposed a new benchmark to evaluate the rarely studied fully online speaker diarization problem. We built upon existing datasets of real world utterances to automatically curate MiniVox, an experimental environment which generates infinite configurations of continuous multi-speaker speech stream. Secondly, we considered the practical problem of online learning with episodically revealed rewards and introduced a solution based on semi-supervised and self-supervised learning methods. Lastly, we provided a workable web-based recognition system which interactively handles the cold start problem of new user's addition by transferring representations of old arms to new ones with an extendable contextual bandit. We demonstrated that our proposed method obtained robust performance in the online MiniVox framework.</t>
-  </si>
-  <si>
     <t>VoiceID on the fly: A Speaker Recognition System that Learns from Scratch</t>
   </si>
   <si>
@@ -1051,6 +1048,27 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=4167011196447633661</t>
+  </si>
+  <si>
+    <t>lin2020predicting</t>
+  </si>
+  <si>
+    <t>lin2020predicting.png</t>
+  </si>
+  <si>
+    <t>lin2020predicting.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/doerlbh/HumanLSTM</t>
+  </si>
+  <si>
+    <t>We proposed a novel machine learning framework to conduct real-time multi-speaker diarization and recognition without prior registration and pretraining in a fully online learning setting. Our contributions are two-fold. First, we proposed a new benchmark to evaluate the rarely studied fully online speaker diarization problem. We built upon existing datasets of real world utterances to automatically curate MiniVox, an experimental environment which generates infinite configurations of continuous multi-speaker speech stream. Second, we considered the practical problem of online learning with episodically revealed rewards and introduced a solution based on semi-supervised and self-supervised learning methods. Additionally, we provided a workable web-based recognition system which interactively handles the cold start problem of new user's addition by transferring representations of old arms to new ones with an extendable contextual bandit. We demonstrated that our proposed method obtained robust performance in the online MiniVox framework.</t>
+  </si>
+  <si>
+    <t>Unlike traditional time series, the action sequences of human decision making usually involve many cognitive processes such as beliefs, desires, intentions and theory of mind, i.e. what others are thinking. This makes predicting human decision making challenging to be treated agnostically to the underlying psychological mechanisms. We propose to use a recurrent neural network architecture based on long short-term memory networks (LSTM) to predict the time series of the actions taken by the human subjects at each step of their decision making, the first application of such methods in this research domain. We trained our prediction networks on the behavioral data from several published psychological experiments of human decision making, and demonstrated a clear advantage over the state-of-the-art methods in predicting human decision making trajectories in both single-agent scenarios such as Iowa Gambling Task and multi-agent scenarios such as Iterated Prisoner's Dilemma.</t>
+  </si>
+  <si>
+    <t>Predicting Human Decision Making in Psychological Tasks with Recurrent Neural Networks</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,25 +1446,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1467,25 +1485,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
       <c r="Q1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1494,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X1" t="s">
         <v>218</v>
-      </c>
-      <c r="X1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1505,52 +1523,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
+        <v>338</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="V2" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="W2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="X2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1558,53 +1564,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>320</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="W3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1612,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1620,36 +1625,45 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="W4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1657,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1665,42 +1679,36 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="X5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1708,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1716,38 +1724,42 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="X6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1755,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1764,25 +1776,37 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>44</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="V7" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="X7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1790,58 +1814,34 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8">
-        <v>2020</v>
+        <v>316</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="V8" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="W8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="X8" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1849,64 +1849,58 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>331</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s">
-        <v>327</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="R9" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="W9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1914,47 +1908,64 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>326</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="X10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1962,55 +1973,44 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="V11" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="X11" t="s">
         <v>228</v>
@@ -2021,49 +2021,58 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
         <v>69</v>
       </c>
-      <c r="M12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
+      <c r="R12" t="s">
+        <v>71</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2071,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2080,37 +2089,40 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" t="s">
-        <v>88</v>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="V13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="X13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2118,46 +2130,46 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>247</v>
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>86</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="X14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2165,46 +2177,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>103</v>
+        <v>245</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>246</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="V15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="W15" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="X15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2212,52 +2224,46 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16">
         <v>2019</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="W16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="X16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2265,52 +2271,52 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
-      </c>
-      <c r="R17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="W17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="X17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2318,58 +2324,52 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="P18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" t="s">
+        <v>118</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="V18" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="W18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X18" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2386,49 +2386,49 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
-      </c>
-      <c r="P19" t="s">
-        <v>136</v>
-      </c>
-      <c r="R19" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="N19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>126</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="V19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="X19" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2445,49 +2445,49 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="R20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V20" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="W20" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2498,49 +2498,55 @@
         <v>309</v>
       </c>
       <c r="C21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="P21" t="s">
+        <v>143</v>
+      </c>
+      <c r="R21" t="s">
+        <v>142</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="V21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="W21" t="s">
+        <v>235</v>
+      </c>
+      <c r="X21" t="s">
         <v>224</v>
-      </c>
-      <c r="X21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2548,52 +2554,52 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
-      </c>
-      <c r="P22" t="s">
-        <v>164</v>
-      </c>
-      <c r="R22" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="V22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="W22" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2601,49 +2607,52 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="C23">
         <v>2017</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
         <v>165</v>
       </c>
-      <c r="I23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" t="s">
-        <v>334</v>
-      </c>
       <c r="K23" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="M23" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="P23" t="s">
+        <v>163</v>
+      </c>
+      <c r="R23" t="s">
+        <v>161</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="V23" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="W23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2651,49 +2660,49 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="K24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q24" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="V24" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
         <v>242</v>
-      </c>
-      <c r="X24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2701,49 +2710,49 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="V25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2751,52 +2760,49 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s">
-        <v>193</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P26" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>183</v>
       </c>
       <c r="V26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="W26" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="X26" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2807,113 +2813,167 @@
         <v>291</v>
       </c>
       <c r="C27">
+        <v>2016</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" t="s">
+        <v>190</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V27" t="s">
+        <v>188</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28">
         <v>2015</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" t="s">
         <v>197</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J28" t="s">
         <v>198</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K28" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" t="s">
         <v>199</v>
       </c>
-      <c r="K27" t="s">
-        <v>203</v>
-      </c>
-      <c r="M27" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>202</v>
-      </c>
-      <c r="V27" t="s">
-        <v>200</v>
-      </c>
-      <c r="W27" t="s">
-        <v>242</v>
-      </c>
-      <c r="X27" t="s">
-        <v>240</v>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
-    <hyperlink ref="U3" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
-    <hyperlink ref="S4" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
-    <hyperlink ref="L5" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
-    <hyperlink ref="S5" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
-    <hyperlink ref="L6" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
-    <hyperlink ref="S6" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
-    <hyperlink ref="L9" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
-    <hyperlink ref="S9" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
-    <hyperlink ref="L10" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
-    <hyperlink ref="S10" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
-    <hyperlink ref="T9" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
-    <hyperlink ref="T11" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
-    <hyperlink ref="T6" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
-    <hyperlink ref="L11" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
-    <hyperlink ref="S11" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
-    <hyperlink ref="L12" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
-    <hyperlink ref="S12" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
-    <hyperlink ref="S13" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
-    <hyperlink ref="S14" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
-    <hyperlink ref="S15" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
-    <hyperlink ref="O15" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
-    <hyperlink ref="L16" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
-    <hyperlink ref="O16" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
-    <hyperlink ref="S16" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
-    <hyperlink ref="O17" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
-    <hyperlink ref="S17" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
-    <hyperlink ref="O18" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
-    <hyperlink ref="S18" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
-    <hyperlink ref="S19" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
-    <hyperlink ref="L19" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
-    <hyperlink ref="L20" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
-    <hyperlink ref="S20" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
-    <hyperlink ref="S21" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
-    <hyperlink ref="L21" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
-    <hyperlink ref="L22" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
-    <hyperlink ref="S22" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
-    <hyperlink ref="O26" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
-    <hyperlink ref="U26" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
-    <hyperlink ref="S26" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
-    <hyperlink ref="F19" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
-    <hyperlink ref="F9" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
-    <hyperlink ref="F11" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
-    <hyperlink ref="F5" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
-    <hyperlink ref="F23" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
-    <hyperlink ref="F27" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
-    <hyperlink ref="F24" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
-    <hyperlink ref="F25" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
-    <hyperlink ref="F21" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
-    <hyperlink ref="F18" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
-    <hyperlink ref="S2" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
-    <hyperlink ref="U8" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
-    <hyperlink ref="S8" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
-    <hyperlink ref="T8" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
-    <hyperlink ref="O9" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
-    <hyperlink ref="L8" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
-    <hyperlink ref="L2" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
-    <hyperlink ref="F2" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
-    <hyperlink ref="F3" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
-    <hyperlink ref="F8" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
-    <hyperlink ref="F20" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
+    <hyperlink ref="U4" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
+    <hyperlink ref="S5" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
+    <hyperlink ref="L6" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
+    <hyperlink ref="S6" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
+    <hyperlink ref="L7" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
+    <hyperlink ref="S7" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
+    <hyperlink ref="L10" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
+    <hyperlink ref="S10" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
+    <hyperlink ref="S11" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
+    <hyperlink ref="T10" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
+    <hyperlink ref="T12" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
+    <hyperlink ref="T7" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
+    <hyperlink ref="L12" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
+    <hyperlink ref="S12" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
+    <hyperlink ref="L13" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
+    <hyperlink ref="S13" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
+    <hyperlink ref="S14" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
+    <hyperlink ref="S15" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
+    <hyperlink ref="S16" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
+    <hyperlink ref="O16" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
+    <hyperlink ref="L17" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
+    <hyperlink ref="O17" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
+    <hyperlink ref="S17" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
+    <hyperlink ref="O18" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
+    <hyperlink ref="S18" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
+    <hyperlink ref="O19" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
+    <hyperlink ref="S19" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
+    <hyperlink ref="S20" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
+    <hyperlink ref="L20" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
+    <hyperlink ref="L21" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
+    <hyperlink ref="S21" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
+    <hyperlink ref="S22" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
+    <hyperlink ref="L22" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
+    <hyperlink ref="L23" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
+    <hyperlink ref="S23" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
+    <hyperlink ref="O27" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
+    <hyperlink ref="U27" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
+    <hyperlink ref="S27" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
+    <hyperlink ref="F20" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
+    <hyperlink ref="F10" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
+    <hyperlink ref="F12" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
+    <hyperlink ref="F6" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
+    <hyperlink ref="F24" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
+    <hyperlink ref="F28" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
+    <hyperlink ref="F25" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
+    <hyperlink ref="F26" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
+    <hyperlink ref="F22" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
+    <hyperlink ref="F19" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
+    <hyperlink ref="S3" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
+    <hyperlink ref="U9" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
+    <hyperlink ref="S9" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
+    <hyperlink ref="T9" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
+    <hyperlink ref="O10" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
+    <hyperlink ref="L9" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
+    <hyperlink ref="L3" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
+    <hyperlink ref="F3" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
+    <hyperlink ref="F4" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
+    <hyperlink ref="F9" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
+    <hyperlink ref="F21" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
+    <hyperlink ref="S2" r:id="rId64" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2936,25 +2996,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2962,19 +3022,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2982,19 +3042,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,16 +3065,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3022,19 +3082,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3045,13 +3105,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3062,13 +3122,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3079,13 +3139,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3096,16 +3156,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3116,13 +3176,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3133,13 +3193,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3150,13 +3210,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,16 +3227,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3187,16 +3247,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F5A50-F213-B844-9CA7-A4C555DCF623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF3DE6-962F-874C-854C-B9105864096D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="346">
   <si>
     <t>title</t>
   </si>
@@ -1069,6 +1069,9 @@
   </si>
   <si>
     <t>Predicting Human Decision Making in Psychological Tasks with Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t>ML-NS</t>
   </si>
 </sst>
 </file>
@@ -1433,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1559,7 @@
         <v>223</v>
       </c>
       <c r="X2" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF3DE6-962F-874C-854C-B9105864096D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1307DD-DE88-F546-A13C-A625E308C122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="347">
   <si>
     <t>title</t>
   </si>
@@ -1072,6 +1072,9 @@
   </si>
   <si>
     <t>ML-NS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2010.11413</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,6 +1549,9 @@
       <c r="K2" t="s">
         <v>339</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="M2" t="s">
         <v>340</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>
@@ -2977,6 +2983,7 @@
     <hyperlink ref="F9" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
     <hyperlink ref="F21" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
     <hyperlink ref="S2" r:id="rId64" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
+    <hyperlink ref="L2" r:id="rId65" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1307DD-DE88-F546-A13C-A625E308C122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58643410-55FC-0C47-BD08-E89BCC5A92A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="460" windowWidth="28040" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="38840" yWindow="-6820" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
   <si>
     <t>title</t>
   </si>
@@ -1075,6 +1075,15 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2010.11413</t>
+  </si>
+  <si>
+    <t>INTERSPEECH_VoiceID_slides</t>
+  </si>
+  <si>
+    <t>AJCAI_BerlinUCB_slides.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PsVHObTXtCw</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,6 +1564,9 @@
       <c r="M2" t="s">
         <v>340</v>
       </c>
+      <c r="R2" t="s">
+        <v>348</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>341</v>
       </c>
@@ -1611,6 +1623,9 @@
       <c r="S3" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="V3" t="s">
         <v>325</v>
       </c>
@@ -1805,9 +1820,6 @@
       <c r="S7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="V7" t="s">
         <v>42</v>
       </c>
@@ -1893,6 +1905,9 @@
       <c r="M9" t="s">
         <v>24</v>
       </c>
+      <c r="R9" t="s">
+        <v>347</v>
+      </c>
       <c r="S9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2124,6 +2139,9 @@
       <c r="S13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="T13" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="V13" t="s">
         <v>82</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
@@ -2934,7 +2952,7 @@
     <hyperlink ref="S11" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
     <hyperlink ref="T10" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
     <hyperlink ref="T12" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
-    <hyperlink ref="T7" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
+    <hyperlink ref="T13" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
     <hyperlink ref="L12" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
     <hyperlink ref="S12" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
     <hyperlink ref="L13" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
@@ -2984,6 +3002,7 @@
     <hyperlink ref="F21" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
     <hyperlink ref="S2" r:id="rId64" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
     <hyperlink ref="L2" r:id="rId65" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
+    <hyperlink ref="T3" r:id="rId66" xr:uid="{B144EDDF-77AE-1B48-BC33-C854247B05C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58643410-55FC-0C47-BD08-E89BCC5A92A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F4873-82D7-3648-BC1B-D2D4B0C98C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38840" yWindow="-6820" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,9 +1564,6 @@
       <c r="M2" t="s">
         <v>340</v>
       </c>
-      <c r="R2" t="s">
-        <v>348</v>
-      </c>
       <c r="S2" s="1" t="s">
         <v>341</v>
       </c>
@@ -1619,6 +1616,9 @@
       </c>
       <c r="M3" t="s">
         <v>323</v>
+      </c>
+      <c r="R3" t="s">
+        <v>348</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>324</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F4873-82D7-3648-BC1B-D2D4B0C98C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B0B37F-0E8D-754A-AA0C-E110806F0020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38840" yWindow="-6820" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
         <v>209</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -1947,7 +1947,7 @@
         <v>207</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -2060,7 +2060,7 @@
         <v>208</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -2419,7 +2419,7 @@
         <v>215</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>120</v>
@@ -2478,7 +2478,7 @@
         <v>206</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
         <v>130</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B0B37F-0E8D-754A-AA0C-E110806F0020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA443399-47FD-8444-9BC9-AAFF45E9C836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38840" yWindow="-6820" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1947,7 @@
         <v>207</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -2596,7 +2596,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
@@ -2702,7 +2702,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA443399-47FD-8444-9BC9-AAFF45E9C836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020AAEE-2D77-0742-84E5-5073B91BB2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38840" yWindow="-6820" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="1800" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
         <v>209</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -1947,7 +1947,7 @@
         <v>207</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -2060,7 +2060,7 @@
         <v>208</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -2596,7 +2596,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
@@ -2702,7 +2702,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020AAEE-2D77-0742-84E5-5073B91BB2DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B91370-900F-EF42-82B0-0DC9FEEEB362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1653,7 @@
         <v>335</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B91370-900F-EF42-82B0-0DC9FEEEB362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D7E43-4051-5245-AF79-7A4BF7D5F9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="353">
   <si>
     <t>title</t>
   </si>
@@ -1084,6 +1084,15 @@
   </si>
   <si>
     <t>https://youtu.be/PsVHObTXtCw</t>
+  </si>
+  <si>
+    <t>IJCAI_V2R_poster.pdf</t>
+  </si>
+  <si>
+    <t>IJCAI_V2R_slides.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mEiaFmEq_yQ</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1458,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,10 +2035,18 @@
       <c r="M11" t="s">
         <v>58</v>
       </c>
+      <c r="P11" t="s">
+        <v>350</v>
+      </c>
+      <c r="R11" t="s">
+        <v>351</v>
+      </c>
       <c r="S11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="V11" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2436,7 @@
         <v>215</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
         <v>120</v>
@@ -2752,7 +2769,7 @@
         <v>212</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>
@@ -3003,6 +3020,7 @@
     <hyperlink ref="S2" r:id="rId64" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
     <hyperlink ref="L2" r:id="rId65" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
     <hyperlink ref="T3" r:id="rId66" xr:uid="{B144EDDF-77AE-1B48-BC33-C854247B05C8}"/>
+    <hyperlink ref="T11" r:id="rId67" xr:uid="{AAAE0B81-2DD3-2447-9726-4557F3EC8C6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D7E43-4051-5245-AF79-7A4BF7D5F9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B5735-EE11-4644-A219-4C6FAA1DDD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="2260" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2719,7 +2719,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>
@@ -2819,7 +2819,7 @@
         <v>213</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
         <v>179</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B5735-EE11-4644-A219-4C6FAA1DDD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA342B-5853-A642-9E51-E85D6B430C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2495,7 @@
         <v>206</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
         <v>130</v>
@@ -2719,7 +2719,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>
@@ -2769,7 +2769,7 @@
         <v>212</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA342B-5853-A642-9E51-E85D6B430C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC1F23-DC7D-4346-AC27-52E15F71D5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="354">
   <si>
     <t>title</t>
   </si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>https://youtu.be/mEiaFmEq_yQ</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=17304195652212051367</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2325,6 +2328,12 @@
       </c>
       <c r="E17" t="s">
         <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>103</v>
@@ -3021,6 +3030,7 @@
     <hyperlink ref="L2" r:id="rId65" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
     <hyperlink ref="T3" r:id="rId66" xr:uid="{B144EDDF-77AE-1B48-BC33-C854247B05C8}"/>
     <hyperlink ref="T11" r:id="rId67" xr:uid="{AAAE0B81-2DD3-2447-9726-4557F3EC8C6D}"/>
+    <hyperlink ref="F17" r:id="rId68" xr:uid="{5FC6B91F-5866-3945-8FE1-F957A479A6C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC1F23-DC7D-4346-AC27-52E15F71D5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35BC36-C36B-8D47-BBC0-F3CE69944033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="33160" windowHeight="19780" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="14020" yWindow="540" windowWidth="33160" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1764,7 @@
         <v>209</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -1959,7 +1959,7 @@
         <v>207</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -2080,7 +2080,7 @@
         <v>208</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -2622,7 +2622,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
@@ -2778,7 +2778,7 @@
         <v>212</v>
       </c>
       <c r="G25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>172</v>
@@ -2931,7 +2931,7 @@
         <v>211</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
         <v>196</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35BC36-C36B-8D47-BBC0-F3CE69944033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10DA96E-927A-0241-BB97-B6D78A447969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="540" windowWidth="33160" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="10180" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1609,7 @@
         <v>334</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>321</v>
@@ -1665,7 +1665,7 @@
         <v>335</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1764,7 +1764,7 @@
         <v>209</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -1897,7 +1897,7 @@
         <v>336</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1959,7 +1959,7 @@
         <v>207</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -2080,7 +2080,7 @@
         <v>208</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -2445,7 +2445,7 @@
         <v>215</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>120</v>
@@ -2504,7 +2504,7 @@
         <v>206</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>130</v>
@@ -2622,7 +2622,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
@@ -2728,7 +2728,7 @@
         <v>210</v>
       </c>
       <c r="G24">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
         <v>164</v>
@@ -2828,7 +2828,7 @@
         <v>213</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
         <v>179</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10DA96E-927A-0241-BB97-B6D78A447969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6FE5BE-8A7B-5044-9702-45F3FA6EBB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="10180" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="24520" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Baihan Lin, Xinxin Zhang</t>
   </si>
   <si>
@@ -1096,6 +1093,9 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=17304195652212051367</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,25 +1473,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1512,25 +1512,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
-        <v>74</v>
-      </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
@@ -1539,10 +1539,10 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>216</v>
+      </c>
+      <c r="X1" t="s">
         <v>217</v>
-      </c>
-      <c r="X1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1550,43 +1550,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V2" t="s">
+        <v>342</v>
+      </c>
+      <c r="W2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X2" t="s">
         <v>344</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M2" t="s">
-        <v>340</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V2" t="s">
-        <v>343</v>
-      </c>
-      <c r="W2" t="s">
-        <v>223</v>
-      </c>
-      <c r="X2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1603,49 +1603,49 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" t="s">
         <v>321</v>
       </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M3" t="s">
         <v>322</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
+        <v>347</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" t="s">
         <v>324</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="V3" t="s">
-        <v>325</v>
-      </c>
       <c r="W3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1671,35 +1671,35 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W4" t="s">
+        <v>218</v>
+      </c>
+      <c r="X4" t="s">
         <v>219</v>
-      </c>
-      <c r="X4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1707,44 +1707,44 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="T5" s="1"/>
       <c r="V5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X5" t="s">
         <v>221</v>
-      </c>
-      <c r="X5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1752,50 +1752,50 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6">
         <v>16</v>
       </c>
       <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="T6" s="1"/>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1803,43 +1803,43 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="H7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" t="s">
-        <v>42</v>
-      </c>
       <c r="W7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1847,34 +1847,34 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" t="s">
         <v>313</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>316</v>
+      </c>
+      <c r="V8" t="s">
         <v>314</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>317</v>
-      </c>
-      <c r="V8" t="s">
-        <v>315</v>
-      </c>
       <c r="W8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1891,52 +1891,52 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="R9" t="s">
+        <v>346</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" t="s">
         <v>24</v>
       </c>
-      <c r="R9" t="s">
-        <v>347</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" t="s">
-        <v>25</v>
-      </c>
       <c r="W9" t="s">
+        <v>218</v>
+      </c>
+      <c r="X9" t="s">
         <v>219</v>
-      </c>
-      <c r="X9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1944,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -1953,55 +1953,55 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>325</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s">
-        <v>326</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="V10" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="V10" t="s">
-        <v>53</v>
-      </c>
       <c r="W10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -2018,46 +2018,46 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
       <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>349</v>
+      </c>
+      <c r="R11" t="s">
+        <v>350</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="V11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" t="s">
-        <v>350</v>
-      </c>
-      <c r="R11" t="s">
-        <v>351</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="V11" t="s">
-        <v>61</v>
-      </c>
       <c r="W11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -2074,49 +2074,49 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12">
         <v>17</v>
       </c>
       <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" t="s">
         <v>68</v>
       </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
       <c r="R12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -2133,43 +2133,43 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>80</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" t="s">
         <v>81</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V13" t="s">
-        <v>82</v>
-      </c>
       <c r="W13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2186,37 +2186,37 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
         <v>83</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
         <v>85</v>
       </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="S14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P14" t="s">
-        <v>86</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="V14" t="s">
         <v>89</v>
       </c>
-      <c r="V14" t="s">
-        <v>90</v>
-      </c>
       <c r="W14" t="s">
+        <v>228</v>
+      </c>
+      <c r="X14" t="s">
         <v>229</v>
-      </c>
-      <c r="X14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -2233,37 +2233,37 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
         <v>91</v>
       </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
       <c r="J15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K15" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" t="s">
         <v>244</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>245</v>
       </c>
-      <c r="Q15" t="s">
-        <v>246</v>
-      </c>
       <c r="S15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16">
         <v>2019</v>
@@ -2280,37 +2280,37 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
         <v>97</v>
       </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" t="s">
         <v>98</v>
       </c>
-      <c r="K16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V16" t="s">
-        <v>99</v>
-      </c>
       <c r="W16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -2327,49 +2327,49 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>104</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="S17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="V17" t="s">
         <v>109</v>
       </c>
-      <c r="V17" t="s">
-        <v>110</v>
-      </c>
       <c r="W17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -2386,43 +2386,43 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>117</v>
       </c>
-      <c r="R18" t="s">
-        <v>118</v>
-      </c>
       <c r="S18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" t="s">
         <v>89</v>
       </c>
-      <c r="V18" t="s">
-        <v>90</v>
-      </c>
       <c r="W18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -2439,49 +2439,49 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19">
         <v>12</v>
       </c>
       <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
         <v>120</v>
       </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
       <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Q19" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N19" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>126</v>
-      </c>
-      <c r="S19" s="1" t="s">
+      <c r="V19" t="s">
         <v>128</v>
       </c>
-      <c r="V19" t="s">
-        <v>129</v>
-      </c>
       <c r="W19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2498,49 +2498,49 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" t="s">
         <v>132</v>
       </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" t="s">
-        <v>133</v>
-      </c>
       <c r="W20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -2557,49 +2557,49 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
         <v>139</v>
       </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K21" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" t="s">
+        <v>142</v>
+      </c>
+      <c r="R21" t="s">
         <v>141</v>
       </c>
-      <c r="M21" t="s">
+      <c r="S21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s">
         <v>144</v>
       </c>
-      <c r="P21" t="s">
-        <v>143</v>
-      </c>
-      <c r="R21" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s">
-        <v>145</v>
-      </c>
       <c r="W21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22">
         <v>2018</v>
@@ -2616,43 +2616,43 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G22">
         <v>29</v>
       </c>
       <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
         <v>147</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>148</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" t="s">
+        <v>151</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V22" t="s">
         <v>149</v>
       </c>
-      <c r="K22" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V22" t="s">
-        <v>150</v>
-      </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -2669,43 +2669,43 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
         <v>155</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K23" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" t="s">
+        <v>162</v>
+      </c>
+      <c r="R23" t="s">
+        <v>160</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V23" t="s">
         <v>156</v>
       </c>
-      <c r="J23" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M23" t="s">
-        <v>158</v>
-      </c>
-      <c r="P23" t="s">
-        <v>163</v>
-      </c>
-      <c r="R23" t="s">
-        <v>161</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V23" t="s">
-        <v>157</v>
-      </c>
       <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
         <v>238</v>
-      </c>
-      <c r="X23" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -2722,40 +2722,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24">
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>332</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" t="s">
         <v>167</v>
       </c>
-      <c r="J24" t="s">
-        <v>333</v>
-      </c>
-      <c r="K24" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>168</v>
-      </c>
       <c r="V24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
         <v>241</v>
-      </c>
-      <c r="X24" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25">
         <v>2017</v>
@@ -2772,40 +2772,40 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25">
         <v>18</v>
       </c>
       <c r="H25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
         <v>172</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>176</v>
+      </c>
+      <c r="V25" t="s">
         <v>174</v>
       </c>
-      <c r="J25" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" t="s">
-        <v>176</v>
-      </c>
-      <c r="M25" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>177</v>
-      </c>
-      <c r="V25" t="s">
-        <v>175</v>
-      </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26">
         <v>2017</v>
@@ -2822,40 +2822,40 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="H26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" t="s">
         <v>179</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>180</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>182</v>
+      </c>
+      <c r="V26" t="s">
         <v>181</v>
       </c>
-      <c r="K26" t="s">
-        <v>185</v>
-      </c>
-      <c r="M26" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>183</v>
-      </c>
-      <c r="V26" t="s">
-        <v>182</v>
-      </c>
       <c r="W26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27">
         <v>2016</v>
@@ -2872,43 +2872,43 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
         <v>186</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" t="s">
+        <v>189</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V27" t="s">
         <v>187</v>
       </c>
-      <c r="J27" t="s">
-        <v>189</v>
-      </c>
-      <c r="K27" t="s">
-        <v>195</v>
-      </c>
-      <c r="M27" t="s">
-        <v>192</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P27" t="s">
-        <v>190</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V27" t="s">
-        <v>188</v>
-      </c>
       <c r="W27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28">
         <v>2015</v>
@@ -2925,40 +2925,40 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28">
         <v>30</v>
       </c>
       <c r="H28" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" t="s">
         <v>196</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>197</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>200</v>
+      </c>
+      <c r="V28" t="s">
         <v>198</v>
       </c>
-      <c r="K28" t="s">
-        <v>202</v>
-      </c>
-      <c r="M28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>201</v>
-      </c>
-      <c r="V28" t="s">
-        <v>199</v>
-      </c>
       <c r="W28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3053,25 +3053,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3079,19 +3079,19 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3099,19 +3099,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3122,16 +3122,16 @@
         <v>2017</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3139,19 +3139,19 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3162,13 +3162,13 @@
         <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3179,13 +3179,13 @@
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3196,13 +3196,13 @@
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3213,16 +3213,16 @@
         <v>2017</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3233,13 +3233,13 @@
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3250,13 +3250,13 @@
         <v>2016</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3267,13 +3267,13 @@
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3284,16 +3284,16 @@
         <v>2017</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3304,16 +3304,16 @@
         <v>2013</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6FE5BE-8A7B-5044-9702-45F3FA6EBB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F861E6-9AC1-AC4F-BFAB-FAD6BD792BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="24520" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1609,7 @@
         <v>333</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>320</v>
@@ -1665,7 +1665,7 @@
         <v>334</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1764,7 +1764,7 @@
         <v>208</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1897,7 +1897,7 @@
         <v>335</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1959,7 +1959,7 @@
         <v>206</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -2080,7 +2080,7 @@
         <v>207</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>65</v>
@@ -2504,7 +2504,7 @@
         <v>205</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>129</v>
@@ -2728,7 +2728,7 @@
         <v>209</v>
       </c>
       <c r="G24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F861E6-9AC1-AC4F-BFAB-FAD6BD792BA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBFFC0B-9141-5648-AC98-302B290C86A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="24520" windowHeight="19400" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1609,7 @@
         <v>333</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
         <v>320</v>
@@ -2445,7 +2445,7 @@
         <v>214</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
@@ -2728,7 +2728,7 @@
         <v>209</v>
       </c>
       <c r="G24">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBFFC0B-9141-5648-AC98-302B290C86A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C36053-2BBB-B648-AF3B-066D096528D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="19840" yWindow="2920" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2728,7 +2728,7 @@
         <v>209</v>
       </c>
       <c r="G24">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>
@@ -2778,7 +2778,7 @@
         <v>211</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>171</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C36053-2BBB-B648-AF3B-066D096528D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E99347-23EA-694E-ACBB-B2FD190B86C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="2920" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="20260" yWindow="2960" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2445,7 +2445,7 @@
         <v>214</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
@@ -2728,7 +2728,7 @@
         <v>209</v>
       </c>
       <c r="G24">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
         <v>163</v>
@@ -2778,7 +2778,7 @@
         <v>211</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
         <v>171</v>
@@ -2828,7 +2828,7 @@
         <v>212</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>178</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E99347-23EA-694E-ACBB-B2FD190B86C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1739991-5514-8B47-B750-E41E8064A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="2960" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="20260" yWindow="2960" windowWidth="17740" windowHeight="16180" activeTab="1" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="367">
   <si>
     <t>title</t>
   </si>
@@ -1096,6 +1096,45 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>lin2021epidemic</t>
+  </si>
+  <si>
+    <t>Optimal Epidemic Control as a Contextual Combinatorial Bandit with Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baihan Lin, Djallel Bouneffouf </t>
+  </si>
+  <si>
+    <t>lin2021epidemic.png</t>
+  </si>
+  <si>
+    <t>lin2021epidemic.txt</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2106.15808</t>
+  </si>
+  <si>
+    <t>https://github.com/doerlbh/BanditZoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In light of the COVID-19 pandemic, it is an open challenge and critical practical problem to find a optimal way to dynamically prescribe the best policies that balance both the governmental resources and epidemic control in different countries and regions. To solve this multi-dimensional tradeoff of exploitation and exploration, we formulate this technical challenge as a contextual combinatorial bandit problem that jointly optimizes a multi-criteria reward function. Given the historical daily cases in a region and the past intervention plans in place, the agent should generate useful intervention plans that policy makers can implement in real time to minimizing both the number of daily COVID-19 cases and the stringency of the recommended interventions. We prove this concept with simulations of multiple realistic policy making scenarios. </t>
+  </si>
+  <si>
+    <t>ML-TM</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>X, the Moonshot Factory</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>NS-ML-TM-CV</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1559,34 +1598,34 @@
         <v>353</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M2" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="V2" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="W2" t="s">
         <v>222</v>
       </c>
       <c r="X2" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1594,58 +1633,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
+        <v>337</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M3" t="s">
-        <v>322</v>
-      </c>
-      <c r="R3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="V3" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="W3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="X3" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1653,53 +1677,58 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>319</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>322</v>
+      </c>
+      <c r="R4" t="s">
+        <v>347</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>18</v>
+        <v>323</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="V4" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="W4" t="s">
         <v>218</v>
       </c>
       <c r="X4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1707,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1715,36 +1744,45 @@
       <c r="E5" t="s">
         <v>353</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="W5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -1752,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1760,42 +1798,36 @@
       <c r="E6" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T6" s="1"/>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="X6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -1803,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1811,35 +1843,42 @@
       <c r="E7" t="s">
         <v>353</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="X7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -1847,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1856,25 +1895,34 @@
         <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="X8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -1882,61 +1930,34 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9">
-        <v>2020</v>
+        <v>315</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="J9" t="s">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>346</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="V9" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="W9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="X9" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -1944,64 +1965,61 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>325</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="W10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="X10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -2009,55 +2027,64 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>349</v>
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="R11" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="X11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -2065,58 +2092,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>349</v>
       </c>
       <c r="R12" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="V12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="X12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -2124,46 +2148,52 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>70</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s">
         <v>222</v>
@@ -2177,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -2189,34 +2219,40 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="V14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="X14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -2224,46 +2260,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>245</v>
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>85</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -2271,46 +2307,46 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="K16" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>101</v>
+        <v>244</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>245</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="V16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="X16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2318,58 +2354,46 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17">
         <v>2019</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="V17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="W17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="X17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2377,52 +2401,58 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18">
         <v>2019</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
-      </c>
-      <c r="R18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="V18" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="W18" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="X18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2430,58 +2460,52 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C19">
         <v>2019</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
-      </c>
-      <c r="N19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="P19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>117</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="W19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2489,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -2498,49 +2522,49 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="N20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="V20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="W20" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2548,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -2560,46 +2584,46 @@
         <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="R21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="V21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2607,52 +2631,58 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="P22" t="s">
+        <v>142</v>
+      </c>
+      <c r="R22" t="s">
+        <v>141</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2660,52 +2690,52 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C23">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D23">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M23" t="s">
-        <v>157</v>
-      </c>
-      <c r="P23" t="s">
-        <v>162</v>
-      </c>
-      <c r="R23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="V23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2713,49 +2743,52 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="C24">
         <v>2017</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>332</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>167</v>
+        <v>157</v>
+      </c>
+      <c r="P24" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" t="s">
+        <v>160</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="V24" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
@@ -2763,49 +2796,49 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="K25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="V25" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="W25" t="s">
         <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -2813,49 +2846,49 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C26">
         <v>2017</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="V26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="W26" t="s">
         <v>240</v>
       </c>
       <c r="X26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -2863,52 +2896,49 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s">
-        <v>191</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P27" t="s">
-        <v>189</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>182</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="X27" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -2916,121 +2946,176 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28">
+        <v>2016</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" t="s">
+        <v>189</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="V28" t="s">
+        <v>187</v>
+      </c>
+      <c r="W28" t="s">
+        <v>230</v>
+      </c>
+      <c r="X28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>289</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2015</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>30</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>195</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>196</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J29" t="s">
         <v>197</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K29" t="s">
         <v>201</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" t="s">
         <v>199</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q29" t="s">
         <v>200</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V29" t="s">
         <v>198</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W29" t="s">
         <v>240</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X29" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
-    <hyperlink ref="S4" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
-    <hyperlink ref="U4" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
-    <hyperlink ref="S5" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
-    <hyperlink ref="L6" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
-    <hyperlink ref="S6" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
-    <hyperlink ref="L7" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
-    <hyperlink ref="S7" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
-    <hyperlink ref="L10" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
-    <hyperlink ref="S10" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
-    <hyperlink ref="L11" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
-    <hyperlink ref="S11" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
-    <hyperlink ref="T10" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
-    <hyperlink ref="T12" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
-    <hyperlink ref="T13" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
-    <hyperlink ref="L12" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
-    <hyperlink ref="S12" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
-    <hyperlink ref="L13" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
-    <hyperlink ref="S13" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
-    <hyperlink ref="S14" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
-    <hyperlink ref="S15" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
-    <hyperlink ref="S16" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
-    <hyperlink ref="O16" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
-    <hyperlink ref="L17" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
-    <hyperlink ref="O17" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
-    <hyperlink ref="S17" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
-    <hyperlink ref="O18" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
-    <hyperlink ref="S18" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
-    <hyperlink ref="O19" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
-    <hyperlink ref="S19" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
-    <hyperlink ref="S20" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
-    <hyperlink ref="L20" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
-    <hyperlink ref="L21" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
-    <hyperlink ref="S21" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
-    <hyperlink ref="S22" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
-    <hyperlink ref="L22" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
-    <hyperlink ref="L23" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
-    <hyperlink ref="S23" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
-    <hyperlink ref="O27" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
-    <hyperlink ref="U27" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
-    <hyperlink ref="S27" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
-    <hyperlink ref="F20" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
-    <hyperlink ref="F10" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
-    <hyperlink ref="F12" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
-    <hyperlink ref="F6" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
-    <hyperlink ref="F24" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
-    <hyperlink ref="F28" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
-    <hyperlink ref="F25" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
-    <hyperlink ref="F26" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
-    <hyperlink ref="F22" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
-    <hyperlink ref="F19" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
-    <hyperlink ref="S3" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
-    <hyperlink ref="U9" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
-    <hyperlink ref="S9" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
-    <hyperlink ref="T9" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
-    <hyperlink ref="O10" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
-    <hyperlink ref="L9" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
-    <hyperlink ref="L3" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
-    <hyperlink ref="F3" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
-    <hyperlink ref="F4" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
-    <hyperlink ref="F9" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
-    <hyperlink ref="F21" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
-    <hyperlink ref="S2" r:id="rId64" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
-    <hyperlink ref="L2" r:id="rId65" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
-    <hyperlink ref="T3" r:id="rId66" xr:uid="{B144EDDF-77AE-1B48-BC33-C854247B05C8}"/>
-    <hyperlink ref="T11" r:id="rId67" xr:uid="{AAAE0B81-2DD3-2447-9726-4557F3EC8C6D}"/>
-    <hyperlink ref="F17" r:id="rId68" xr:uid="{5FC6B91F-5866-3945-8FE1-F957A479A6C1}"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{5B0F7667-FE37-F34A-AC38-F81CD4469CEC}"/>
+    <hyperlink ref="S5" r:id="rId2" xr:uid="{222EE742-293D-B74F-A089-60E719E67092}"/>
+    <hyperlink ref="U5" r:id="rId3" xr:uid="{8C1EE27C-B9FE-C440-98E9-9894D1FFC943}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{9B745B18-E099-A548-BC50-85AC8AD0CD6F}"/>
+    <hyperlink ref="S6" r:id="rId5" xr:uid="{89B9F1A5-E13D-0041-B1E9-D4EE7F6CFF7E}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{F16323BF-11C4-8F4E-885F-F14C9BA59A60}"/>
+    <hyperlink ref="S7" r:id="rId7" xr:uid="{DE895B31-8ACC-7345-8670-4C0CE99341EC}"/>
+    <hyperlink ref="L8" r:id="rId8" xr:uid="{05E1D395-4995-7D42-AF5B-6430E1005FE9}"/>
+    <hyperlink ref="S8" r:id="rId9" xr:uid="{A497B70D-F621-9541-9EAA-E94AA2E164D1}"/>
+    <hyperlink ref="L11" r:id="rId10" xr:uid="{613A6821-00F5-7F46-837A-3CA6FDC4E523}"/>
+    <hyperlink ref="S11" r:id="rId11" xr:uid="{344F2F57-7CF8-A34C-8FA8-B0A5BFE65615}"/>
+    <hyperlink ref="L12" r:id="rId12" xr:uid="{20350B95-5E84-1D49-9321-2E824134522E}"/>
+    <hyperlink ref="S12" r:id="rId13" xr:uid="{C0259699-F280-044F-8C2F-75CDC809FD84}"/>
+    <hyperlink ref="T11" r:id="rId14" xr:uid="{70FB47DE-DBE4-0546-9BCD-A7DF52AECB00}"/>
+    <hyperlink ref="T13" r:id="rId15" xr:uid="{A79A47B4-DE43-6349-A3EA-2892C1288230}"/>
+    <hyperlink ref="T14" r:id="rId16" xr:uid="{456B4AB9-81F0-FC4B-A2DF-C5AF2A00DE6D}"/>
+    <hyperlink ref="L13" r:id="rId17" xr:uid="{833897A9-E560-8142-BC47-F17858FA9587}"/>
+    <hyperlink ref="S13" r:id="rId18" xr:uid="{6BABC62F-6452-374A-9514-5D967BEA7EC4}"/>
+    <hyperlink ref="L14" r:id="rId19" xr:uid="{7CC14624-EB38-7844-9223-227BC8C2F65C}"/>
+    <hyperlink ref="S14" r:id="rId20" xr:uid="{3E24801E-1149-4D4C-9931-4EEF53B59A3F}"/>
+    <hyperlink ref="S15" r:id="rId21" xr:uid="{36139BD1-AD60-9B4A-A83A-7E7EBD23D9F7}"/>
+    <hyperlink ref="S16" r:id="rId22" xr:uid="{D8E5A8B7-67D5-E64D-B384-DF28BF3D10A9}"/>
+    <hyperlink ref="S17" r:id="rId23" xr:uid="{91FE4C01-BD2B-7741-8C46-187B2F04A0FB}"/>
+    <hyperlink ref="O17" r:id="rId24" xr:uid="{1C1760F0-22CF-C942-9D5F-8839D3402DDD}"/>
+    <hyperlink ref="L18" r:id="rId25" xr:uid="{12D9C94F-AA7B-3E4F-92C1-E809F3C7B772}"/>
+    <hyperlink ref="O18" r:id="rId26" xr:uid="{E99AB94B-8663-1D4D-B6E5-085CDE36984C}"/>
+    <hyperlink ref="S18" r:id="rId27" xr:uid="{191EB2D5-CEB1-0E47-A22B-290B87316E6E}"/>
+    <hyperlink ref="O19" r:id="rId28" xr:uid="{D490BAA8-325B-2B4F-B766-A3A8AEB2B15F}"/>
+    <hyperlink ref="S19" r:id="rId29" xr:uid="{226E85E1-79CD-6642-94BB-0DE6E2992790}"/>
+    <hyperlink ref="O20" r:id="rId30" xr:uid="{78392073-9D75-1846-A3FB-7A8A8A6333F5}"/>
+    <hyperlink ref="S20" r:id="rId31" xr:uid="{2ABF4ED3-8972-584E-9CCE-327DB258C8AE}"/>
+    <hyperlink ref="S21" r:id="rId32" xr:uid="{7CD6086F-27FF-6A46-BA5E-9EBD2DE166C5}"/>
+    <hyperlink ref="L21" r:id="rId33" xr:uid="{129E7F4F-4A68-7243-8025-82B79D081A17}"/>
+    <hyperlink ref="L22" r:id="rId34" xr:uid="{6590F57B-9E2C-324A-BD34-47DFBECAA9F1}"/>
+    <hyperlink ref="S22" r:id="rId35" xr:uid="{1F2CAF2C-4852-214E-BAED-9E6AAD908B46}"/>
+    <hyperlink ref="S23" r:id="rId36" xr:uid="{10E1FD9E-EF69-C248-842C-B8BC9CF81646}"/>
+    <hyperlink ref="L23" r:id="rId37" xr:uid="{3DEA9432-1F43-574A-9A31-271BEA5EB7C4}"/>
+    <hyperlink ref="L24" r:id="rId38" xr:uid="{D33D6673-9B0B-2A4D-A737-3CDA039D8EE4}"/>
+    <hyperlink ref="S24" r:id="rId39" xr:uid="{CC678B1F-57AE-AD44-B905-0382A713AEAB}"/>
+    <hyperlink ref="O28" r:id="rId40" xr:uid="{2C092873-109A-7748-9EAA-385EDB9ECBAB}"/>
+    <hyperlink ref="U28" r:id="rId41" xr:uid="{8D9E500F-6DA3-C841-B725-34028D7D31EE}"/>
+    <hyperlink ref="S28" r:id="rId42" xr:uid="{E9C93A7B-6154-904A-8893-573C015F5F8C}"/>
+    <hyperlink ref="F21" r:id="rId43" xr:uid="{1D1FF07E-41E7-4B4E-A01F-103484DDB1C1}"/>
+    <hyperlink ref="F11" r:id="rId44" xr:uid="{A0962830-B0C7-DB48-A943-F141B0A77937}"/>
+    <hyperlink ref="F13" r:id="rId45" xr:uid="{B86DB1F9-01DD-074C-9FA9-B1FE7B87857D}"/>
+    <hyperlink ref="F7" r:id="rId46" xr:uid="{6125CA87-FF6F-C647-ACBC-A090D2F23433}"/>
+    <hyperlink ref="F25" r:id="rId47" xr:uid="{3AF7A6F3-C085-A54F-AA60-B1AAE6D01B3E}"/>
+    <hyperlink ref="F29" r:id="rId48" xr:uid="{CC06C706-794C-774C-8373-B5FC4592F741}"/>
+    <hyperlink ref="F26" r:id="rId49" xr:uid="{5E660FB6-2678-F344-8E15-57526BAD353D}"/>
+    <hyperlink ref="F27" r:id="rId50" xr:uid="{253725BB-7AA3-3A42-9271-200A1FAFAF60}"/>
+    <hyperlink ref="F23" r:id="rId51" xr:uid="{B8C40CFC-E52A-E94D-8A9E-D58EEBE2EB6D}"/>
+    <hyperlink ref="F20" r:id="rId52" xr:uid="{72070C00-E41C-FA43-AE41-20D199D958A9}"/>
+    <hyperlink ref="S4" r:id="rId53" xr:uid="{E401AFF3-1EB2-2B4F-AE3A-5BD6DD40ADAE}"/>
+    <hyperlink ref="U10" r:id="rId54" xr:uid="{E6453EE0-022F-6D40-AF50-86A4E36BC624}"/>
+    <hyperlink ref="S10" r:id="rId55" xr:uid="{E2CC4D2F-7BBF-8C40-8C79-0E95316B80A4}"/>
+    <hyperlink ref="T10" r:id="rId56" xr:uid="{B819CDC6-E8F1-884E-A348-CFAFAA416095}"/>
+    <hyperlink ref="O11" r:id="rId57" xr:uid="{F7F505AB-D799-E847-B182-FD283FC9648C}"/>
+    <hyperlink ref="L10" r:id="rId58" xr:uid="{DF4DFE8F-3B06-F64B-BEBB-367C12EB8E08}"/>
+    <hyperlink ref="L4" r:id="rId59" xr:uid="{BE8D27D5-1324-524E-9874-A47C3DC40C7E}"/>
+    <hyperlink ref="F4" r:id="rId60" xr:uid="{E4AE1688-6F20-5746-863F-7F504E484E9F}"/>
+    <hyperlink ref="F5" r:id="rId61" xr:uid="{4D10AE66-8E89-574D-BF4C-F498BCC2C379}"/>
+    <hyperlink ref="F10" r:id="rId62" xr:uid="{E6D292EB-227E-4849-B878-FB26EF62581C}"/>
+    <hyperlink ref="F22" r:id="rId63" xr:uid="{647A83C8-D1FC-174E-A88A-52525E7B10F7}"/>
+    <hyperlink ref="T4" r:id="rId64" xr:uid="{B144EDDF-77AE-1B48-BC33-C854247B05C8}"/>
+    <hyperlink ref="T12" r:id="rId65" xr:uid="{AAAE0B81-2DD3-2447-9726-4557F3EC8C6D}"/>
+    <hyperlink ref="F18" r:id="rId66" xr:uid="{5FC6B91F-5866-3945-8FE1-F957A479A6C1}"/>
+    <hyperlink ref="L3" r:id="rId67" xr:uid="{68D24DEE-F463-A54A-A830-2152EA96DED5}"/>
+    <hyperlink ref="S3" r:id="rId68" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
+    <hyperlink ref="L2" r:id="rId69" xr:uid="{C35573CC-4856-D84C-93A9-21DDC720F1CE}"/>
+    <hyperlink ref="S2" r:id="rId70" xr:uid="{6CE065B6-3722-3C4F-B742-C452B716D00B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3038,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00934522-8918-5F4D-855B-4574586BDBC0}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3096,79 +3181,82 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4">
-        <v>2017</v>
+      <c r="B4" t="s">
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="s">
-        <v>268</v>
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>2017</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6">
-        <v>2019</v>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3176,33 +3264,33 @@
         <v>2018</v>
       </c>
       <c r="B7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3212,68 +3300,68 @@
       <c r="B9">
         <v>2017</v>
       </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B10">
         <v>2017</v>
       </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,38 +3369,55 @@
         <v>2014</v>
       </c>
       <c r="B13">
-        <v>2017</v>
-      </c>
-      <c r="C13" t="s">
-        <v>251</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>248</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>247</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>246</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>288</v>
       </c>
     </row>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1739991-5514-8B47-B750-E41E8064A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D023C5-D0A2-AA40-BCE0-AD187CF20AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20260" yWindow="2960" windowWidth="17740" windowHeight="16180" activeTab="1" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
     <t>google</t>
   </si>
   <si>
-    <t>NS-ML-TM-CV</t>
+    <t>NS-ML-TM-CV-SP</t>
   </si>
 </sst>
 </file>
@@ -3125,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00934522-8918-5F4D-855B-4574586BDBC0}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D023C5-D0A2-AA40-BCE0-AD187CF20AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F47517-D1E9-E245-8CC8-40E9592131A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="2960" windowWidth="17740" windowHeight="16180" activeTab="1" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="19840" yWindow="4140" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="368">
   <si>
     <t>title</t>
   </si>
@@ -1135,6 +1135,9 @@
   </si>
   <si>
     <t>NS-ML-TM-CV-SP</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?oi=bibs&amp;hl=en&amp;cites=6845542143431738274</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,7 +1850,7 @@
         <v>208</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
@@ -2042,7 +2045,7 @@
         <v>206</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -2318,6 +2321,12 @@
       <c r="E16" t="s">
         <v>92</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="H16" t="s">
         <v>90</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>214</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>119</v>
@@ -2587,7 +2596,7 @@
         <v>205</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>129</v>
@@ -2705,7 +2714,7 @@
         <v>213</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
         <v>146</v>
@@ -2811,7 +2820,7 @@
         <v>209</v>
       </c>
       <c r="G25">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
         <v>163</v>
@@ -2861,7 +2870,7 @@
         <v>211</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>171</v>
@@ -3014,7 +3023,7 @@
         <v>210</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
         <v>195</v>
@@ -3116,6 +3125,7 @@
     <hyperlink ref="S3" r:id="rId68" xr:uid="{2EAF72F5-CB50-7C4D-B22F-D10C78EB1E84}"/>
     <hyperlink ref="L2" r:id="rId69" xr:uid="{C35573CC-4856-D84C-93A9-21DDC720F1CE}"/>
     <hyperlink ref="S2" r:id="rId70" xr:uid="{6CE065B6-3722-3C4F-B742-C452B716D00B}"/>
+    <hyperlink ref="F16" r:id="rId71" xr:uid="{A316401E-F1DE-9E46-9F57-3271FDA144BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3125,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00934522-8918-5F4D-855B-4574586BDBC0}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F47517-D1E9-E245-8CC8-40E9592131A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87A1C2-1E73-AF43-9EEB-D8AA6D93BE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="4140" windowWidth="17740" windowHeight="16180" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="17260" yWindow="740" windowWidth="16880" windowHeight="16040" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,7 +1695,7 @@
         <v>333</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>320</v>
@@ -1850,7 +1850,7 @@
         <v>208</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
@@ -2045,7 +2045,7 @@
         <v>206</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -2714,7 +2714,7 @@
         <v>213</v>
       </c>
       <c r="G23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
         <v>146</v>
@@ -2820,7 +2820,7 @@
         <v>209</v>
       </c>
       <c r="G25">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>163</v>
@@ -2870,7 +2870,7 @@
         <v>211</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
         <v>171</v>

--- a/data/pubs.xlsx
+++ b/data/pubs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DoerLBH/Dropbox (Personal)/Git/doerbeta.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doerlbh/Dropbox/Git/doerbeta.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87A1C2-1E73-AF43-9EEB-D8AA6D93BE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99326B7D-0C63-7B4A-BD36-BA5388C04CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="740" windowWidth="16880" windowHeight="16040" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
+    <workbookView xWindow="19320" yWindow="500" windowWidth="16880" windowHeight="16040" xr2:uid="{2388AA68-C25E-CF45-A9DC-089130C49FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC3B69-47EC-374A-9EA9-8E92A8B21FEE}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,7 +2714,7 @@
         <v>213</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>146</v>
@@ -2820,7 +2820,7 @@
         <v>209</v>
       </c>
       <c r="G25">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
         <v>163</v>
@@ -2920,7 +2920,7 @@
         <v>212</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
         <v>178</v>
@@ -3023,7 +3023,7 @@
         <v>210</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>195</v>
